--- a/data/jho_correlation_data.xlsx
+++ b/data/jho_correlation_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532"/>
+    <workbookView activeTab="2" windowHeight="8532" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Burrows MP" sheetId="1" r:id="rId1"/>
@@ -149,13 +149,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac x16r2">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,25 +179,35 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,14 +523,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -526,7 +545,7 @@
     <col min="13" max="13" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -578,7 +597,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -602,13 +621,13 @@
         <v>0.3997</v>
       </c>
       <c r="K2" s="1">
-        <v>0.54700000000000004</v>
+        <v>0.547</v>
       </c>
       <c r="L2" s="1">
-        <v>0.65029999999999999</v>
+        <v>0.6503</v>
       </c>
       <c r="M2" s="1">
-        <v>0.18029999999999999</v>
+        <v>0.1803</v>
       </c>
       <c r="N2" s="2">
         <v>7.1</v>
@@ -619,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>5.3333000000000004</v>
+        <v>5.3333</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -640,19 +659,23 @@
         <v>30.73</v>
       </c>
       <c r="J3" s="1">
-        <v>0.51529999999999998</v>
+        <v>0.5153</v>
       </c>
       <c r="K3" s="1">
-        <v>0.34789999999999999</v>
+        <v>0.3479</v>
       </c>
       <c r="L3" s="1">
-        <v>0.76880000000000004</v>
+        <v>0.7688</v>
       </c>
       <c r="M3" s="1">
-        <v>0.34639999999999999</v>
+        <v>0.3464</v>
       </c>
       <c r="N3" s="2">
         <v>3.8</v>
+      </c>
+      <c r="P3" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>52.9999</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -678,16 +701,16 @@
         <v>21.58</v>
       </c>
       <c r="J4" s="1">
-        <v>0.58260000000000001</v>
+        <v>0.5826</v>
       </c>
       <c r="K4" s="1">
-        <v>0.29520000000000002</v>
+        <v>0.2952</v>
       </c>
       <c r="L4" s="1">
-        <v>0.78710000000000002</v>
+        <v>0.7871</v>
       </c>
       <c r="M4" s="1">
-        <v>0.42709999999999998</v>
+        <v>0.4271</v>
       </c>
       <c r="N4" s="2">
         <v>4.5</v>
@@ -716,19 +739,19 @@
         <v>40.75</v>
       </c>
       <c r="J5" s="1">
-        <v>0.60919999999999996</v>
+        <v>0.6092</v>
       </c>
       <c r="K5" s="1">
         <v>0.1426</v>
       </c>
       <c r="L5" s="1">
-        <v>0.78480000000000005</v>
+        <v>0.7848</v>
       </c>
       <c r="M5" s="1">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="N5" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -736,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>26.333300000000001</v>
+        <v>26.3333</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -757,16 +780,16 @@
         <v>22.17</v>
       </c>
       <c r="J6" s="1">
-        <v>0.41810000000000003</v>
+        <v>0.4181</v>
       </c>
       <c r="K6" s="1">
-        <v>1.0114000000000001</v>
+        <v>1.0114</v>
       </c>
       <c r="L6" s="1">
-        <v>0.43280000000000002</v>
+        <v>0.4328</v>
       </c>
       <c r="M6" s="1">
-        <v>8.5099999999999995E-2</v>
+        <v>0.0851</v>
       </c>
       <c r="N6" s="2">
         <v>2.9</v>
@@ -804,14 +827,15 @@
         <v>0.1673</v>
       </c>
       <c r="L7" s="1">
-        <v>0.81440000000000001</v>
+        <v>0.8144</v>
       </c>
       <c r="M7" s="1">
-        <v>0.48709999999999998</v>
+        <v>0.4871</v>
       </c>
       <c r="N7" s="2">
         <v>3.85</v>
       </c>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -836,16 +860,16 @@
         <v>21.83</v>
       </c>
       <c r="J8" s="1">
-        <v>0.61629999999999996</v>
+        <v>0.6163</v>
       </c>
       <c r="K8" s="1">
-        <v>0.19389999999999999</v>
+        <v>0.1939</v>
       </c>
       <c r="L8" s="1">
-        <v>0.80500000000000005</v>
+        <v>0.805</v>
       </c>
       <c r="M8" s="1">
-        <v>0.56210000000000004</v>
+        <v>0.5621</v>
       </c>
       <c r="N8" s="2">
         <v>6.05</v>
@@ -856,7 +880,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>1.6667000000000001</v>
+        <v>1.6667</v>
       </c>
       <c r="C9" s="1">
         <v>44</v>
@@ -880,16 +904,16 @@
         <v>18.57</v>
       </c>
       <c r="J9" s="1">
-        <v>0.67630000000000001</v>
+        <v>0.6763</v>
       </c>
       <c r="K9" s="1">
         <v>0.1915</v>
       </c>
       <c r="L9" s="1">
-        <v>0.85009999999999997</v>
+        <v>0.8501</v>
       </c>
       <c r="M9" s="1">
-        <v>0.63719999999999999</v>
+        <v>0.6372</v>
       </c>
       <c r="N9" s="2"/>
     </row>
@@ -898,7 +922,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>2.6667000000000001</v>
+        <v>2.6667</v>
       </c>
       <c r="C10" s="1">
         <v>88</v>
@@ -913,16 +937,16 @@
         <v>12</v>
       </c>
       <c r="J10" s="1">
-        <v>0.55700000000000005</v>
+        <v>0.557</v>
       </c>
       <c r="K10" s="1">
-        <v>0.16769999999999999</v>
+        <v>0.1677</v>
       </c>
       <c r="L10" s="1">
-        <v>0.83140000000000003</v>
+        <v>0.8314</v>
       </c>
       <c r="M10" s="1">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="N10" s="2">
         <v>5.95</v>
@@ -933,7 +957,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="1">
-        <v>5.6666999999999996</v>
+        <v>5.6667</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -948,16 +972,16 @@
         <v>100</v>
       </c>
       <c r="J11" s="1">
-        <v>0.58799999999999997</v>
+        <v>0.588</v>
       </c>
       <c r="K11" s="1">
         <v>0.2319</v>
       </c>
       <c r="L11" s="1">
-        <v>0.82010000000000005</v>
+        <v>0.8201</v>
       </c>
       <c r="M11" s="1">
-        <v>0.49840000000000001</v>
+        <v>0.4984</v>
       </c>
       <c r="N11" s="2"/>
     </row>
@@ -987,13 +1011,13 @@
         <v>0.6522</v>
       </c>
       <c r="K12" s="1">
-        <v>0.17369999999999999</v>
+        <v>0.1737</v>
       </c>
       <c r="L12" s="1">
-        <v>0.84719999999999995</v>
+        <v>0.8472</v>
       </c>
       <c r="M12" s="1">
-        <v>0.57250000000000001</v>
+        <v>0.5725</v>
       </c>
       <c r="N12" s="2">
         <v>2.6</v>
@@ -1022,16 +1046,16 @@
         <v>31.25</v>
       </c>
       <c r="J13" s="1">
-        <v>0.68799999999999994</v>
+        <v>0.688</v>
       </c>
       <c r="K13" s="1">
         <v>0.1028</v>
       </c>
       <c r="L13" s="1">
-        <v>0.85899999999999999</v>
+        <v>0.859</v>
       </c>
       <c r="M13" s="1">
-        <v>0.57750000000000001</v>
+        <v>0.5775</v>
       </c>
       <c r="N13" s="2"/>
     </row>
@@ -1058,16 +1082,16 @@
         <v>10.33</v>
       </c>
       <c r="J14" s="1">
-        <v>0.65349999999999997</v>
+        <v>0.6535</v>
       </c>
       <c r="K14" s="1">
-        <v>0.19869999999999999</v>
+        <v>0.1987</v>
       </c>
       <c r="L14" s="1">
-        <v>0.81559999999999999</v>
+        <v>0.8156</v>
       </c>
       <c r="M14" s="1">
-        <v>0.56230000000000002</v>
+        <v>0.5623</v>
       </c>
       <c r="N14" s="2"/>
     </row>
@@ -1100,16 +1124,16 @@
         <v>21.83</v>
       </c>
       <c r="J15" s="1">
-        <v>0.64300000000000002</v>
+        <v>0.643</v>
       </c>
       <c r="K15" s="1">
-        <v>0.12759999999999999</v>
+        <v>0.1276</v>
       </c>
       <c r="L15" s="1">
-        <v>0.85460000000000003</v>
+        <v>0.8546</v>
       </c>
       <c r="M15" s="1">
-        <v>0.63600000000000001</v>
+        <v>0.636</v>
       </c>
       <c r="N15" s="2">
         <v>5.75</v>
@@ -1120,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1147,10 +1171,10 @@
         <v>0.1472</v>
       </c>
       <c r="L16" s="1">
-        <v>0.80969999999999998</v>
+        <v>0.8097</v>
       </c>
       <c r="M16" s="1">
-        <v>0.45939999999999998</v>
+        <v>0.4594</v>
       </c>
       <c r="N16" s="2">
         <v>3</v>
@@ -1179,19 +1203,19 @@
         <v>40.83</v>
       </c>
       <c r="I17" s="1">
-        <v>18.829999999999998</v>
+        <v>18.83</v>
       </c>
       <c r="J17" s="1">
-        <v>0.77300000000000002</v>
+        <v>0.773</v>
       </c>
       <c r="K17" s="1">
         <v>0.2253</v>
       </c>
       <c r="L17" s="1">
-        <v>0.82969999999999999</v>
+        <v>0.8297</v>
       </c>
       <c r="M17" s="1">
-        <v>0.55879999999999996</v>
+        <v>0.5588</v>
       </c>
       <c r="N17" s="2">
         <v>2.8</v>
@@ -1223,16 +1247,16 @@
         <v>26.25</v>
       </c>
       <c r="J18" s="1">
-        <v>0.86699999999999999</v>
+        <v>0.867</v>
       </c>
       <c r="K18" s="1">
-        <v>0.20849999999999999</v>
+        <v>0.2085</v>
       </c>
       <c r="L18" s="1">
-        <v>0.84350000000000003</v>
+        <v>0.8435</v>
       </c>
       <c r="M18" s="1">
-        <v>0.59009999999999996</v>
+        <v>0.5901</v>
       </c>
       <c r="N18" s="2">
         <v>3</v>
@@ -1264,16 +1288,16 @@
         <v>18.25</v>
       </c>
       <c r="J19" s="1">
-        <v>0.84699999999999998</v>
+        <v>0.847</v>
       </c>
       <c r="K19" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="L19" s="1">
-        <v>0.80510000000000004</v>
+        <v>0.8051</v>
       </c>
       <c r="M19" s="1">
-        <v>0.55579999999999996</v>
+        <v>0.5558</v>
       </c>
       <c r="N19" s="2">
         <v>2.4</v>
@@ -1284,7 +1308,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1302,13 +1326,13 @@
         <v>36.5</v>
       </c>
       <c r="J20" s="1">
-        <v>0.69399999999999995</v>
+        <v>0.694</v>
       </c>
       <c r="K20" s="1">
-        <v>0.19289999999999999</v>
+        <v>0.1929</v>
       </c>
       <c r="L20" s="1">
-        <v>0.81189999999999996</v>
+        <v>0.8119</v>
       </c>
       <c r="M20" s="1">
         <v>0.4375</v>
@@ -1322,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>9.3332999999999995</v>
+        <v>9.3333</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1346,13 +1370,13 @@
         <v>0.755</v>
       </c>
       <c r="K21" s="1">
-        <v>0.26869999999999999</v>
+        <v>0.2687</v>
       </c>
       <c r="L21" s="1">
-        <v>0.79959999999999998</v>
+        <v>0.7996</v>
       </c>
       <c r="M21" s="1">
-        <v>0.49769999999999998</v>
+        <v>0.4977</v>
       </c>
       <c r="N21" s="2">
         <v>6.3</v>
@@ -1370,14 +1394,13 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -1386,7 +1409,7 @@
     <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1420,16 +1443,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>-6.4500000000000002E-2</v>
+        <v>-0.0645</v>
       </c>
       <c r="D2" s="1">
-        <v>0.98880000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E2" s="1">
-        <v>0.36230000000000001</v>
+        <v>0.3623</v>
       </c>
       <c r="F2" s="1">
-        <v>5.1400000000000001E-2</v>
+        <v>0.0514</v>
       </c>
       <c r="G2" s="1">
         <v>2.6</v>
@@ -1440,19 +1463,19 @@
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C3" s="1">
-        <v>-8.6099999999999996E-2</v>
+        <v>-0.0861</v>
       </c>
       <c r="D3" s="1">
-        <v>0.45340000000000003</v>
+        <v>0.4534</v>
       </c>
       <c r="E3" s="1">
-        <v>0.68910000000000005</v>
+        <v>0.6891</v>
       </c>
       <c r="F3" s="1">
-        <v>0.13689999999999999</v>
+        <v>0.1369</v>
       </c>
       <c r="G3" s="1">
         <v>0.7</v>
@@ -1463,19 +1486,19 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.3333</v>
       </c>
       <c r="C4" s="1">
-        <v>-2.1299999999999999E-2</v>
+        <v>-0.0213</v>
       </c>
       <c r="D4" s="1">
-        <v>0.38150000000000001</v>
+        <v>0.3815</v>
       </c>
       <c r="E4" s="1">
-        <v>0.74990000000000001</v>
+        <v>0.7499</v>
       </c>
       <c r="F4" s="1">
-        <v>0.19750000000000001</v>
+        <v>0.1975</v>
       </c>
       <c r="G4" s="1">
         <v>1.3</v>
@@ -1486,19 +1509,19 @@
         <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>6.3333000000000004</v>
+        <v>6.3333</v>
       </c>
       <c r="C5" s="1">
-        <v>-8.1000000000000003E-2</v>
+        <v>-0.081</v>
       </c>
       <c r="D5" s="1">
-        <v>0.47220000000000001</v>
+        <v>0.4722</v>
       </c>
       <c r="E5" s="1">
-        <v>0.62960000000000005</v>
+        <v>0.6296</v>
       </c>
       <c r="F5" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.146</v>
       </c>
       <c r="G5" s="1">
         <v>0.7</v>
@@ -1509,19 +1532,19 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C6" s="1">
-        <v>-6.8900000000000003E-2</v>
+        <v>-0.0689</v>
       </c>
       <c r="D6" s="1">
-        <v>0.29449999999999998</v>
+        <v>0.2945</v>
       </c>
       <c r="E6" s="1">
-        <v>0.74170000000000003</v>
+        <v>0.7417</v>
       </c>
       <c r="F6" s="1">
-        <v>0.16309999999999999</v>
+        <v>0.1631</v>
       </c>
       <c r="G6" s="1">
         <v>0.6</v>
@@ -1532,19 +1555,19 @@
         <v>33</v>
       </c>
       <c r="B7" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0299999999999997E-2</v>
+        <v>0.0503</v>
       </c>
       <c r="D7" s="1">
-        <v>0.20860000000000001</v>
+        <v>0.2086</v>
       </c>
       <c r="E7" s="1">
-        <v>0.80820000000000003</v>
+        <v>0.8082</v>
       </c>
       <c r="F7" s="1">
-        <v>0.39900000000000002</v>
+        <v>0.399</v>
       </c>
       <c r="G7" s="1">
         <v>1.6</v>
@@ -1558,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23300000000000001</v>
+        <v>0.233</v>
       </c>
       <c r="D8" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.2781</v>
       </c>
       <c r="E8" s="1">
-        <v>0.76790000000000003</v>
+        <v>0.7679</v>
       </c>
       <c r="F8" s="1">
-        <v>0.30880000000000002</v>
+        <v>0.3088</v>
       </c>
       <c r="G8" s="1">
         <v>2.4</v>
@@ -1581,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>6.0299999999999999E-2</v>
+        <v>0.0603</v>
       </c>
       <c r="D9" s="1">
         <v>0.3397</v>
       </c>
       <c r="E9" s="1">
-        <v>0.67759999999999998</v>
+        <v>0.6776</v>
       </c>
       <c r="F9" s="1">
-        <v>0.24709999999999999</v>
+        <v>0.2471</v>
       </c>
       <c r="G9" s="1">
         <v>0.7</v>
@@ -1601,19 +1624,19 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C10" s="1">
-        <v>0.33529999999999999</v>
+        <v>0.3353</v>
       </c>
       <c r="D10" s="1">
-        <v>0.18790000000000001</v>
+        <v>0.1879</v>
       </c>
       <c r="E10" s="1">
-        <v>0.80689999999999995</v>
+        <v>0.8069</v>
       </c>
       <c r="F10" s="1">
-        <v>0.43740000000000001</v>
+        <v>0.4374</v>
       </c>
       <c r="G10" s="1">
         <v>1.3</v>
@@ -1627,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="D11" s="1">
-        <v>0.37940000000000002</v>
+        <v>0.3794</v>
       </c>
       <c r="E11" s="1">
-        <v>0.73080000000000001</v>
+        <v>0.7308</v>
       </c>
       <c r="F11" s="1">
-        <v>0.26700000000000002</v>
+        <v>0.267</v>
       </c>
       <c r="G11" s="1">
         <v>0.7</v>
@@ -1647,19 +1670,19 @@
         <v>34</v>
       </c>
       <c r="B12" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C12" s="1">
-        <v>0.35320000000000001</v>
+        <v>0.3532</v>
       </c>
       <c r="D12" s="1">
         <v>0.7228</v>
       </c>
       <c r="E12" s="1">
-        <v>0.51290000000000002</v>
+        <v>0.5129</v>
       </c>
       <c r="F12" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>0.091</v>
       </c>
       <c r="G12" s="1">
         <v>1.2</v>
@@ -1670,16 +1693,16 @@
         <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C13" s="1">
-        <v>0.42099999999999999</v>
+        <v>0.421</v>
       </c>
       <c r="D13" s="1">
         <v>0.2102</v>
       </c>
       <c r="E13" s="1">
-        <v>0.74019999999999997</v>
+        <v>0.7402</v>
       </c>
       <c r="F13" s="1">
         <v>0.2858</v>
@@ -1699,13 +1722,13 @@
         <v>0.308</v>
       </c>
       <c r="D14" s="1">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="E14" s="1">
-        <v>0.44030000000000002</v>
+        <v>0.4403</v>
       </c>
       <c r="F14" s="1">
-        <v>6.8400000000000002E-2</v>
+        <v>0.0684</v>
       </c>
       <c r="G14" s="1">
         <v>0.9</v>
@@ -1719,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0.41220000000000001</v>
+        <v>0.4122</v>
       </c>
       <c r="D15" s="1">
-        <v>0.82410000000000005</v>
+        <v>0.8241</v>
       </c>
       <c r="E15" s="1">
-        <v>0.50409999999999999</v>
+        <v>0.5041</v>
       </c>
       <c r="F15" s="1">
-        <v>8.9700000000000002E-2</v>
+        <v>0.0897</v>
       </c>
       <c r="G15" s="1">
         <v>1.25</v>
@@ -1739,19 +1762,19 @@
         <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C16" s="1">
-        <v>0.33539999999999998</v>
+        <v>0.3354</v>
       </c>
       <c r="D16" s="1">
         <v>1.0002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.35099999999999998</v>
+        <v>0.351</v>
       </c>
       <c r="F16" s="1">
-        <v>4.8099999999999997E-2</v>
+        <v>0.0481</v>
       </c>
       <c r="G16" s="1">
         <v>1.2</v>
@@ -1768,10 +1791,10 @@
         <v>0.121</v>
       </c>
       <c r="D17" s="1">
-        <v>0.63260000000000005</v>
+        <v>0.6326</v>
       </c>
       <c r="E17" s="1">
-        <v>0.70330000000000004</v>
+        <v>0.7033</v>
       </c>
       <c r="F17" s="1">
         <v>0.1835</v>
@@ -1785,22 +1808,22 @@
         <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C18" s="1">
         <v>0.158</v>
       </c>
       <c r="D18" s="1">
-        <v>0.30759999999999998</v>
+        <v>0.3076</v>
       </c>
       <c r="E18" s="1">
-        <v>0.77110000000000001</v>
+        <v>0.7711</v>
       </c>
       <c r="F18" s="1">
-        <v>0.29360000000000003</v>
+        <v>0.2936</v>
       </c>
       <c r="G18" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1814,13 +1837,13 @@
         <v>-0.13</v>
       </c>
       <c r="D19" s="1">
-        <v>0.84330000000000005</v>
+        <v>0.8433</v>
       </c>
       <c r="E19" s="1">
-        <v>0.58289999999999997</v>
+        <v>0.5829</v>
       </c>
       <c r="F19" s="1">
-        <v>8.6599999999999996E-2</v>
+        <v>0.0866</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -1831,19 +1854,19 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C20" s="1">
         <v>-0.189</v>
       </c>
       <c r="D20" s="1">
-        <v>0.51400000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="E20" s="1">
         <v>0.6724</v>
       </c>
       <c r="F20" s="1">
-        <v>0.14099999999999999</v>
+        <v>0.141</v>
       </c>
       <c r="G20" s="1">
         <v>0.7</v>
@@ -1857,16 +1880,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.082</v>
       </c>
       <c r="D21" s="1">
-        <v>0.38379999999999997</v>
+        <v>0.3838</v>
       </c>
       <c r="E21" s="1">
-        <v>0.79520000000000002</v>
+        <v>0.7952</v>
       </c>
       <c r="F21" s="1">
-        <v>0.28760000000000002</v>
+        <v>0.2876</v>
       </c>
       <c r="G21" s="1">
         <v>0.7</v>
@@ -1878,14 +1901,13 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -1900,7 +1922,7 @@
     <col min="11" max="11" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1949,7 +1971,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="1">
-        <v>3.3332999999999999</v>
+        <v>3.3333</v>
       </c>
       <c r="C2" s="1">
         <v>96</v>
@@ -1967,16 +1989,16 @@
         <v>51</v>
       </c>
       <c r="I2" s="1">
-        <v>0.67230000000000001</v>
+        <v>0.6723</v>
       </c>
       <c r="J2" s="1">
         <v>0.2601</v>
       </c>
       <c r="K2" s="1">
-        <v>0.80579999999999996</v>
+        <v>0.8058</v>
       </c>
       <c r="L2" s="1">
-        <v>0.45079999999999998</v>
+        <v>0.4508</v>
       </c>
       <c r="M2" s="1">
         <v>5.2</v>
@@ -1987,7 +2009,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.3333</v>
       </c>
       <c r="C3" s="1">
         <v>44</v>
@@ -2005,16 +2027,16 @@
         <v>37.5</v>
       </c>
       <c r="I3" s="1">
-        <v>0.70269999999999999</v>
+        <v>0.7027</v>
       </c>
       <c r="J3" s="1">
         <v>1.19</v>
       </c>
       <c r="K3" s="1">
-        <v>0.25119999999999998</v>
+        <v>0.2512</v>
       </c>
       <c r="L3" s="1">
-        <v>3.04E-2</v>
+        <v>0.0304</v>
       </c>
       <c r="M3" s="1">
         <v>2.6</v>
@@ -2040,7 +2062,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="1">
-        <v>0.66579999999999995</v>
+        <v>0.6658</v>
       </c>
       <c r="J4" s="1">
         <v>1.8347</v>
@@ -2049,7 +2071,7 @@
         <v>0.2326</v>
       </c>
       <c r="L4" s="1">
-        <v>4.2700000000000002E-2</v>
+        <v>0.0427</v>
       </c>
       <c r="M4" s="1">
         <v>2.6</v>
@@ -2075,16 +2097,16 @@
         <v>12</v>
       </c>
       <c r="I5" s="1">
-        <v>0.63019999999999998</v>
+        <v>0.6302</v>
       </c>
       <c r="J5" s="1">
-        <v>0.50939999999999996</v>
+        <v>0.5094</v>
       </c>
       <c r="K5" s="1">
-        <v>0.66490000000000005</v>
+        <v>0.6649</v>
       </c>
       <c r="L5" s="1">
-        <v>0.30730000000000002</v>
+        <v>0.3073</v>
       </c>
       <c r="M5" s="1">
         <v>3.9</v>
@@ -2095,7 +2117,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>2.3332999999999999</v>
+        <v>2.3333</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
@@ -2113,16 +2135,16 @@
         <v>33.44</v>
       </c>
       <c r="I6" s="1">
-        <v>0.69310000000000005</v>
+        <v>0.6931</v>
       </c>
       <c r="J6" s="1">
-        <v>0.56989999999999996</v>
+        <v>0.5699</v>
       </c>
       <c r="K6" s="1">
-        <v>0.48799999999999999</v>
+        <v>0.488</v>
       </c>
       <c r="L6" s="1">
-        <v>0.13619999999999999</v>
+        <v>0.1362</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2148,10 +2170,10 @@
         <v>0.8</v>
       </c>
       <c r="J7" s="1">
-        <v>0.63959999999999995</v>
+        <v>0.6396</v>
       </c>
       <c r="K7" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.603</v>
       </c>
       <c r="L7" s="1">
         <v>0.1439</v>
@@ -2183,16 +2205,16 @@
         <v>43.42</v>
       </c>
       <c r="I8" s="1">
-        <v>0.95830000000000004</v>
+        <v>0.9583</v>
       </c>
       <c r="J8" s="1">
-        <v>0.56310000000000004</v>
+        <v>0.5631</v>
       </c>
       <c r="K8" s="1">
-        <v>0.51219999999999999</v>
+        <v>0.5122</v>
       </c>
       <c r="L8" s="1">
-        <v>0.16389999999999999</v>
+        <v>0.1639</v>
       </c>
       <c r="M8" s="1">
         <v>3.6</v>
@@ -2203,7 +2225,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>2.6667000000000001</v>
+        <v>2.6667</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -2218,16 +2240,16 @@
         <v>8</v>
       </c>
       <c r="I9" s="1">
-        <v>0.84530000000000005</v>
+        <v>0.8453</v>
       </c>
       <c r="J9" s="1">
-        <v>1.2555000000000001</v>
+        <v>1.2555</v>
       </c>
       <c r="K9" s="1">
         <v>0.2137</v>
       </c>
       <c r="L9" s="1">
-        <v>3.56E-2</v>
+        <v>0.0356</v>
       </c>
       <c r="M9" s="1">
         <v>3.2</v>
@@ -2256,16 +2278,16 @@
         <v>32.92</v>
       </c>
       <c r="I10" s="1">
-        <v>0.84499999999999997</v>
+        <v>0.845</v>
       </c>
       <c r="J10" s="1">
-        <v>0.38490000000000002</v>
+        <v>0.3849</v>
       </c>
       <c r="K10" s="1">
-        <v>0.67789999999999995</v>
+        <v>0.6779</v>
       </c>
       <c r="L10" s="1">
-        <v>0.28110000000000002</v>
+        <v>0.2811</v>
       </c>
       <c r="M10" s="1">
         <v>3.7</v>
@@ -2297,16 +2319,16 @@
         <v>52.92</v>
       </c>
       <c r="I11" s="1">
-        <v>0.92200000000000004</v>
+        <v>0.922</v>
       </c>
       <c r="J11" s="1">
-        <v>0.20669999999999999</v>
+        <v>0.2067</v>
       </c>
       <c r="K11" s="1">
-        <v>0.83320000000000005</v>
+        <v>0.8332</v>
       </c>
       <c r="L11" s="1">
-        <v>0.74729999999999996</v>
+        <v>0.7473</v>
       </c>
       <c r="M11" s="1">
         <v>5.3</v>
@@ -2338,16 +2360,16 @@
         <v>41.5</v>
       </c>
       <c r="I12" s="1">
-        <v>0.88600000000000001</v>
+        <v>0.886</v>
       </c>
       <c r="J12" s="1">
-        <v>0.52280000000000004</v>
+        <v>0.5228</v>
       </c>
       <c r="K12" s="1">
-        <v>0.64749999999999996</v>
+        <v>0.6475</v>
       </c>
       <c r="L12" s="1">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="M12" s="1">
         <v>2.7</v>
@@ -2379,16 +2401,16 @@
         <v>42</v>
       </c>
       <c r="I13" s="1">
-        <v>0.78200000000000003</v>
+        <v>0.782</v>
       </c>
       <c r="J13" s="1">
-        <v>0.23139999999999999</v>
+        <v>0.2314</v>
       </c>
       <c r="K13" s="1">
-        <v>0.82830000000000004</v>
+        <v>0.8283</v>
       </c>
       <c r="L13" s="1">
-        <v>0.70530000000000004</v>
+        <v>0.7053</v>
       </c>
       <c r="M13" s="1">
         <v>2.6</v>
@@ -2417,19 +2439,19 @@
         <v>26.82</v>
       </c>
       <c r="H14" s="1">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="I14" s="1">
-        <v>0.78500000000000003</v>
+        <v>0.785</v>
       </c>
       <c r="J14" s="1">
-        <v>1.9994000000000001</v>
+        <v>1.9994</v>
       </c>
       <c r="K14" s="1">
-        <v>0.19389999999999999</v>
+        <v>0.1939</v>
       </c>
       <c r="L14" s="1">
-        <v>2.63E-2</v>
+        <v>0.0263</v>
       </c>
       <c r="M14" s="1">
         <v>0.95</v>
@@ -2464,13 +2486,13 @@
         <v>0.8135</v>
       </c>
       <c r="J15" s="1">
-        <v>0.13930000000000001</v>
+        <v>0.1393</v>
       </c>
       <c r="K15" s="1">
-        <v>0.81059999999999999</v>
+        <v>0.8106</v>
       </c>
       <c r="L15" s="1">
-        <v>0.68830000000000002</v>
+        <v>0.6883</v>
       </c>
       <c r="M15" s="1">
         <v>2.6</v>
@@ -2502,13 +2524,13 @@
         <v>0.8034</v>
       </c>
       <c r="J16" s="1">
-        <v>0.15390000000000001</v>
+        <v>0.1539</v>
       </c>
       <c r="K16" s="1">
-        <v>0.79469999999999996</v>
+        <v>0.7947</v>
       </c>
       <c r="L16" s="1">
-        <v>0.66549999999999998</v>
+        <v>0.6655</v>
       </c>
       <c r="M16" s="1">
         <v>3</v>
@@ -2519,7 +2541,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -2534,16 +2556,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0.88100000000000001</v>
+        <v>0.881</v>
       </c>
       <c r="J17" s="1">
         <v>0.1231</v>
       </c>
       <c r="K17" s="1">
-        <v>0.82050000000000001</v>
+        <v>0.8205</v>
       </c>
       <c r="L17" s="1">
-        <v>0.64380000000000004</v>
+        <v>0.6438</v>
       </c>
       <c r="M17" s="1">
         <v>1.2</v>
@@ -2569,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.915</v>
       </c>
       <c r="J18" s="1">
-        <v>0.19370000000000001</v>
+        <v>0.1937</v>
       </c>
       <c r="K18" s="1">
-        <v>0.80969999999999998</v>
+        <v>0.8097</v>
       </c>
       <c r="L18" s="1">
-        <v>0.63490000000000002</v>
+        <v>0.6349</v>
       </c>
       <c r="M18" s="1">
         <v>0.6</v>
@@ -2607,19 +2629,19 @@
         <v>12.2</v>
       </c>
       <c r="I19" s="1">
-        <v>0.91900000000000004</v>
+        <v>0.919</v>
       </c>
       <c r="J19" s="1">
-        <v>0.17080000000000001</v>
+        <v>0.1708</v>
       </c>
       <c r="K19" s="1">
-        <v>0.84699999999999998</v>
+        <v>0.847</v>
       </c>
       <c r="L19" s="1">
-        <v>0.72319999999999995</v>
+        <v>0.7232</v>
       </c>
       <c r="M19" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -2645,16 +2667,16 @@
         <v>42.75</v>
       </c>
       <c r="I20" s="1">
-        <v>0.95399999999999996</v>
+        <v>0.954</v>
       </c>
       <c r="J20" s="1">
-        <v>0.29349999999999998</v>
+        <v>0.2935</v>
       </c>
       <c r="K20" s="1">
-        <v>0.78459999999999996</v>
+        <v>0.7846</v>
       </c>
       <c r="L20" s="1">
-        <v>0.54039999999999999</v>
+        <v>0.5404</v>
       </c>
       <c r="M20" s="1">
         <v>1.9</v>
@@ -2665,7 +2687,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -2680,16 +2702,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0.82299999999999995</v>
+        <v>0.823</v>
       </c>
       <c r="J21" s="1">
-        <v>0.26900000000000002</v>
+        <v>0.269</v>
       </c>
       <c r="K21" s="1">
-        <v>0.81869999999999998</v>
+        <v>0.8187</v>
       </c>
       <c r="L21" s="1">
-        <v>0.56359999999999999</v>
+        <v>0.5636</v>
       </c>
       <c r="M21" s="1">
         <v>1.4</v>
@@ -2701,14 +2723,13 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -2723,7 +2744,7 @@
     <col min="12" max="12" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -2799,13 +2820,13 @@
         <v>0.3997</v>
       </c>
       <c r="K2" s="1">
-        <v>0.54700000000000004</v>
+        <v>0.547</v>
       </c>
       <c r="L2" s="1">
-        <v>0.65029999999999999</v>
+        <v>0.6503</v>
       </c>
       <c r="M2" s="1">
-        <v>0.18029999999999999</v>
+        <v>0.1803</v>
       </c>
       <c r="N2" s="1">
         <v>7.1</v>
@@ -2816,7 +2837,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -2837,16 +2858,16 @@
         <v>22.17</v>
       </c>
       <c r="J3" s="1">
-        <v>0.41810000000000003</v>
+        <v>0.4181</v>
       </c>
       <c r="K3" s="1">
-        <v>1.0114000000000001</v>
+        <v>1.0114</v>
       </c>
       <c r="L3" s="1">
-        <v>0.43280000000000002</v>
+        <v>0.4328</v>
       </c>
       <c r="M3" s="1">
-        <v>8.5099999999999995E-2</v>
+        <v>0.0851</v>
       </c>
       <c r="N3" s="1">
         <v>2.9</v>
@@ -2875,19 +2896,19 @@
         <v>40.75</v>
       </c>
       <c r="J4" s="1">
-        <v>0.60919999999999996</v>
+        <v>0.6092</v>
       </c>
       <c r="K4" s="1">
         <v>0.1426</v>
       </c>
       <c r="L4" s="1">
-        <v>0.78480000000000005</v>
+        <v>0.7848</v>
       </c>
       <c r="M4" s="1">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="N4" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2913,16 +2934,16 @@
         <v>21.58</v>
       </c>
       <c r="J5" s="1">
-        <v>0.58260000000000001</v>
+        <v>0.5826</v>
       </c>
       <c r="K5" s="1">
-        <v>0.29520000000000002</v>
+        <v>0.2952</v>
       </c>
       <c r="L5" s="1">
-        <v>0.78710000000000002</v>
+        <v>0.7871</v>
       </c>
       <c r="M5" s="1">
-        <v>0.42709999999999998</v>
+        <v>0.4271</v>
       </c>
       <c r="N5" s="1">
         <v>4.5</v>
@@ -2933,7 +2954,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>2.3332999999999999</v>
+        <v>2.3333</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -2954,16 +2975,16 @@
         <v>30.73</v>
       </c>
       <c r="J6" s="1">
-        <v>0.51529999999999998</v>
+        <v>0.5153</v>
       </c>
       <c r="K6" s="1">
-        <v>0.34789999999999999</v>
+        <v>0.3479</v>
       </c>
       <c r="L6" s="1">
-        <v>0.76880000000000004</v>
+        <v>0.7688</v>
       </c>
       <c r="M6" s="1">
-        <v>0.34639999999999999</v>
+        <v>0.3464</v>
       </c>
       <c r="N6" s="1">
         <v>3.8</v>
@@ -2989,16 +3010,16 @@
         <v>12</v>
       </c>
       <c r="J7" s="1">
-        <v>0.55700000000000005</v>
+        <v>0.557</v>
       </c>
       <c r="K7" s="1">
-        <v>0.16769999999999999</v>
+        <v>0.1677</v>
       </c>
       <c r="L7" s="1">
-        <v>0.83140000000000003</v>
+        <v>0.8314</v>
       </c>
       <c r="M7" s="1">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="N7" s="1">
         <v>5.95</v>
@@ -3009,7 +3030,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.3333</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -3036,10 +3057,10 @@
         <v>0.1673</v>
       </c>
       <c r="L8" s="1">
-        <v>0.81440000000000001</v>
+        <v>0.8144</v>
       </c>
       <c r="M8" s="1">
-        <v>0.48709999999999998</v>
+        <v>0.4871</v>
       </c>
       <c r="N8" s="1">
         <v>3.85</v>
@@ -3050,7 +3071,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>9.6667000000000005</v>
+        <v>9.6667</v>
       </c>
       <c r="C9" s="1">
         <v>96</v>
@@ -3068,16 +3089,16 @@
         <v>21.83</v>
       </c>
       <c r="J9" s="1">
-        <v>0.61629999999999996</v>
+        <v>0.6163</v>
       </c>
       <c r="K9" s="1">
-        <v>0.19389999999999999</v>
+        <v>0.1939</v>
       </c>
       <c r="L9" s="1">
-        <v>0.80500000000000005</v>
+        <v>0.805</v>
       </c>
       <c r="M9" s="1">
-        <v>0.56210000000000004</v>
+        <v>0.5621</v>
       </c>
       <c r="N9" s="1">
         <v>6.05</v>
@@ -3088,7 +3109,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>8.3332999999999995</v>
+        <v>8.3333</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -3103,16 +3124,16 @@
         <v>100</v>
       </c>
       <c r="J10" s="1">
-        <v>0.58799999999999997</v>
+        <v>0.588</v>
       </c>
       <c r="K10" s="1">
         <v>0.2319</v>
       </c>
       <c r="L10" s="1">
-        <v>0.82010000000000005</v>
+        <v>0.8201</v>
       </c>
       <c r="M10" s="1">
-        <v>0.49840000000000001</v>
+        <v>0.4984</v>
       </c>
       <c r="N10" s="1">
         <v>6.7</v>
@@ -3147,16 +3168,16 @@
         <v>18.57</v>
       </c>
       <c r="J11" s="1">
-        <v>0.67630000000000001</v>
+        <v>0.6763</v>
       </c>
       <c r="K11" s="1">
         <v>0.1915</v>
       </c>
       <c r="L11" s="1">
-        <v>0.85009999999999997</v>
+        <v>0.8501</v>
       </c>
       <c r="M11" s="1">
-        <v>0.63719999999999999</v>
+        <v>0.6372</v>
       </c>
       <c r="N11" s="1">
         <v>4.5</v>
@@ -3167,7 +3188,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.3333</v>
       </c>
       <c r="C12" s="1">
         <v>84</v>
@@ -3188,13 +3209,13 @@
         <v>0.6522</v>
       </c>
       <c r="K12" s="1">
-        <v>0.17369999999999999</v>
+        <v>0.1737</v>
       </c>
       <c r="L12" s="1">
-        <v>0.84719999999999995</v>
+        <v>0.8472</v>
       </c>
       <c r="M12" s="1">
-        <v>0.57250000000000001</v>
+        <v>0.5725</v>
       </c>
       <c r="N12" s="1">
         <v>2.6</v>
@@ -3223,16 +3244,16 @@
         <v>31.25</v>
       </c>
       <c r="J13" s="1">
-        <v>0.68799999999999994</v>
+        <v>0.688</v>
       </c>
       <c r="K13" s="1">
         <v>0.1028</v>
       </c>
       <c r="L13" s="1">
-        <v>0.85899999999999999</v>
+        <v>0.859</v>
       </c>
       <c r="M13" s="1">
-        <v>0.57750000000000001</v>
+        <v>0.5775</v>
       </c>
       <c r="N13" s="1">
         <v>3.4</v>
@@ -3243,7 +3264,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -3270,10 +3291,10 @@
         <v>0.1472</v>
       </c>
       <c r="L14" s="1">
-        <v>0.80969999999999998</v>
+        <v>0.8097</v>
       </c>
       <c r="M14" s="1">
-        <v>0.45939999999999998</v>
+        <v>0.4594</v>
       </c>
       <c r="N14" s="1">
         <v>3</v>
@@ -3284,7 +3305,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.3333</v>
       </c>
       <c r="C15" s="1">
         <v>36</v>
@@ -3302,19 +3323,19 @@
         <v>10.33</v>
       </c>
       <c r="J15" s="1">
-        <v>0.65349999999999997</v>
+        <v>0.6535</v>
       </c>
       <c r="K15" s="1">
-        <v>0.19869999999999999</v>
+        <v>0.1987</v>
       </c>
       <c r="L15" s="1">
-        <v>0.81559999999999999</v>
+        <v>0.8156</v>
       </c>
       <c r="M15" s="1">
-        <v>0.56230000000000002</v>
+        <v>0.5623</v>
       </c>
       <c r="N15" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -3322,7 +3343,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>1.6667000000000001</v>
+        <v>1.6667</v>
       </c>
       <c r="C16" s="1">
         <v>76</v>
@@ -3346,16 +3367,16 @@
         <v>21.83</v>
       </c>
       <c r="J16" s="1">
-        <v>0.64300000000000002</v>
+        <v>0.643</v>
       </c>
       <c r="K16" s="1">
-        <v>0.12759999999999999</v>
+        <v>0.1276</v>
       </c>
       <c r="L16" s="1">
-        <v>0.85460000000000003</v>
+        <v>0.8546</v>
       </c>
       <c r="M16" s="1">
-        <v>0.63600000000000001</v>
+        <v>0.636</v>
       </c>
       <c r="N16" s="1">
         <v>5.75</v>
@@ -3384,19 +3405,19 @@
         <v>40.83</v>
       </c>
       <c r="I17" s="1">
-        <v>18.829999999999998</v>
+        <v>18.83</v>
       </c>
       <c r="J17" s="1">
-        <v>0.77300000000000002</v>
+        <v>0.773</v>
       </c>
       <c r="K17" s="1">
         <v>0.2253</v>
       </c>
       <c r="L17" s="1">
-        <v>0.82969999999999999</v>
+        <v>0.8297</v>
       </c>
       <c r="M17" s="1">
-        <v>0.55879999999999996</v>
+        <v>0.5588</v>
       </c>
       <c r="N17" s="1">
         <v>2.8</v>
@@ -3407,7 +3428,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -3428,16 +3449,16 @@
         <v>26.25</v>
       </c>
       <c r="J18" s="1">
-        <v>0.86699999999999999</v>
+        <v>0.867</v>
       </c>
       <c r="K18" s="1">
-        <v>0.20849999999999999</v>
+        <v>0.2085</v>
       </c>
       <c r="L18" s="1">
-        <v>0.84350000000000003</v>
+        <v>0.8435</v>
       </c>
       <c r="M18" s="1">
-        <v>0.59009999999999996</v>
+        <v>0.5901</v>
       </c>
       <c r="N18" s="1">
         <v>3</v>
@@ -3469,16 +3490,16 @@
         <v>18.25</v>
       </c>
       <c r="J19" s="1">
-        <v>0.84699999999999998</v>
+        <v>0.847</v>
       </c>
       <c r="K19" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="L19" s="1">
-        <v>0.80510000000000004</v>
+        <v>0.8051</v>
       </c>
       <c r="M19" s="1">
-        <v>0.55579999999999996</v>
+        <v>0.5558</v>
       </c>
       <c r="N19" s="1">
         <v>2.4</v>
@@ -3513,13 +3534,13 @@
         <v>0.755</v>
       </c>
       <c r="K20" s="1">
-        <v>0.26869999999999999</v>
+        <v>0.2687</v>
       </c>
       <c r="L20" s="1">
-        <v>0.79959999999999998</v>
+        <v>0.7996</v>
       </c>
       <c r="M20" s="1">
-        <v>0.49769999999999998</v>
+        <v>0.4977</v>
       </c>
       <c r="N20" s="1">
         <v>6.3</v>
@@ -3530,7 +3551,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -3548,13 +3569,13 @@
         <v>36.5</v>
       </c>
       <c r="J21" s="1">
-        <v>0.69399999999999995</v>
+        <v>0.694</v>
       </c>
       <c r="K21" s="1">
-        <v>0.19289999999999999</v>
+        <v>0.1929</v>
       </c>
       <c r="L21" s="1">
-        <v>0.81189999999999996</v>
+        <v>0.8119</v>
       </c>
       <c r="M21" s="1">
         <v>0.4375</v>
@@ -3569,14 +3590,13 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection pane="topLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -3587,7 +3607,7 @@
     <col min="8" max="8" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3639,7 +3659,7 @@
         <v>97.58</v>
       </c>
       <c r="F2" s="1">
-        <v>0.25240000000000001</v>
+        <v>0.2524</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3647,7 +3667,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C3" s="1">
         <v>56</v>
@@ -3659,16 +3679,16 @@
         <v>79</v>
       </c>
       <c r="F3" s="1">
-        <v>0.28920000000000001</v>
+        <v>0.2892</v>
       </c>
       <c r="G3" s="1">
         <v>0.4541</v>
       </c>
       <c r="H3" s="1">
-        <v>0.68799999999999994</v>
+        <v>0.688</v>
       </c>
       <c r="I3" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3691,13 +3711,13 @@
         <v>0.2155</v>
       </c>
       <c r="G4" s="1">
-        <v>0.42259999999999998</v>
+        <v>0.4226</v>
       </c>
       <c r="H4" s="1">
-        <v>0.71189999999999998</v>
+        <v>0.7119</v>
       </c>
       <c r="I4" s="1">
-        <v>0.21010000000000001</v>
+        <v>0.2101</v>
       </c>
       <c r="J4" s="1">
         <v>2.9</v>
@@ -3708,7 +3728,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>1.6667000000000001</v>
+        <v>1.6667</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -3720,16 +3740,16 @@
         <v>45.17</v>
       </c>
       <c r="F5" s="1">
-        <v>0.22059999999999999</v>
+        <v>0.2206</v>
       </c>
       <c r="G5" s="1">
-        <v>0.39939999999999998</v>
+        <v>0.3994</v>
       </c>
       <c r="H5" s="1">
         <v>0.7389</v>
       </c>
       <c r="I5" s="1">
-        <v>0.23400000000000001</v>
+        <v>0.234</v>
       </c>
       <c r="J5" s="1">
         <v>1.9</v>
@@ -3740,7 +3760,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C6" s="1">
         <v>84</v>
@@ -3755,10 +3775,10 @@
         <v>0.3216</v>
       </c>
       <c r="G6" s="1">
-        <v>0.51700000000000002</v>
+        <v>0.517</v>
       </c>
       <c r="H6" s="1">
-        <v>0.74319999999999997</v>
+        <v>0.7432</v>
       </c>
       <c r="I6" s="1">
         <v>0.2379</v>
@@ -3784,16 +3804,16 @@
         <v>52</v>
       </c>
       <c r="F7" s="1">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="G7" s="1">
-        <v>0.40160000000000001</v>
+        <v>0.4016</v>
       </c>
       <c r="H7" s="1">
-        <v>0.73580000000000001</v>
+        <v>0.7358</v>
       </c>
       <c r="I7" s="1">
-        <v>0.25669999999999998</v>
+        <v>0.2567</v>
       </c>
       <c r="J7" s="1">
         <v>4.3</v>
@@ -3804,7 +3824,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C8" s="1">
         <v>60</v>
@@ -3816,7 +3836,7 @@
         <v>78.08</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.10100000000000001</v>
+        <v>-0.101</v>
       </c>
       <c r="G8" s="1">
         <v>0.3553</v>
@@ -3825,7 +3845,7 @@
         <v>0.7077</v>
       </c>
       <c r="I8" s="1">
-        <v>0.19739999999999999</v>
+        <v>0.1974</v>
       </c>
       <c r="J8" s="1">
         <v>2.1</v>
@@ -3836,7 +3856,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C9" s="1">
         <v>72</v>
@@ -3848,16 +3868,16 @@
         <v>78</v>
       </c>
       <c r="F9" s="1">
-        <v>0.16830000000000001</v>
+        <v>0.1683</v>
       </c>
       <c r="G9" s="1">
-        <v>0.31259999999999999</v>
+        <v>0.3126</v>
       </c>
       <c r="H9" s="1">
-        <v>0.73650000000000004</v>
+        <v>0.7365</v>
       </c>
       <c r="I9" s="1">
-        <v>0.21310000000000001</v>
+        <v>0.2131</v>
       </c>
       <c r="J9" s="1">
         <v>1.05</v>
@@ -3868,7 +3888,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.3333</v>
       </c>
       <c r="C10" s="1">
         <v>88</v>
@@ -3883,13 +3903,13 @@
         <v>0.1883</v>
       </c>
       <c r="G10" s="1">
-        <v>0.35470000000000002</v>
+        <v>0.3547</v>
       </c>
       <c r="H10" s="1">
-        <v>0.77070000000000005</v>
+        <v>0.7707</v>
       </c>
       <c r="I10" s="1">
-        <v>0.27050000000000002</v>
+        <v>0.2705</v>
       </c>
       <c r="J10" s="1">
         <v>3.3</v>
@@ -3900,7 +3920,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C11" s="1">
         <v>60</v>
@@ -3912,16 +3932,16 @@
         <v>80.08</v>
       </c>
       <c r="F11" s="1">
-        <v>0.20300000000000001</v>
+        <v>0.203</v>
       </c>
       <c r="G11" s="1">
-        <v>0.36149999999999999</v>
+        <v>0.3615</v>
       </c>
       <c r="H11" s="1">
-        <v>0.74490000000000001</v>
+        <v>0.7449</v>
       </c>
       <c r="I11" s="1">
-        <v>0.29220000000000002</v>
+        <v>0.2922</v>
       </c>
       <c r="J11" s="1">
         <v>1.2</v>
@@ -3944,13 +3964,13 @@
         <v>65.75</v>
       </c>
       <c r="F12" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.603</v>
       </c>
       <c r="G12" s="1">
-        <v>0.31069999999999998</v>
+        <v>0.3107</v>
       </c>
       <c r="H12" s="1">
-        <v>0.75960000000000005</v>
+        <v>0.7596</v>
       </c>
       <c r="I12" s="1">
         <v>0.3276</v>
@@ -3964,7 +3984,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>1.6667000000000001</v>
+        <v>1.6667</v>
       </c>
       <c r="C13" s="1">
         <v>88</v>
@@ -3976,16 +3996,16 @@
         <v>86.58</v>
       </c>
       <c r="F13" s="1">
-        <v>0.38550000000000001</v>
+        <v>0.3855</v>
       </c>
       <c r="G13" s="1">
-        <v>0.19489999999999999</v>
+        <v>0.1949</v>
       </c>
       <c r="H13" s="1">
-        <v>0.82489999999999997</v>
+        <v>0.8249</v>
       </c>
       <c r="I13" s="1">
-        <v>0.38879999999999998</v>
+        <v>0.3888</v>
       </c>
       <c r="J13" s="1">
         <v>1.95</v>
@@ -3996,7 +4016,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -4008,7 +4028,7 @@
         <v>78.67</v>
       </c>
       <c r="F14" s="1">
-        <v>0.50870000000000004</v>
+        <v>0.5087</v>
       </c>
       <c r="G14" s="1">
         <v>1.5243</v>
@@ -4017,7 +4037,7 @@
         <v>0.2495</v>
       </c>
       <c r="I14" s="1">
-        <v>2.3099999999999999E-2</v>
+        <v>0.0231</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
@@ -4028,7 +4048,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C15" s="1">
         <v>80</v>
@@ -4040,16 +4060,16 @@
         <v>70.17</v>
       </c>
       <c r="F15" s="1">
-        <v>0.42599999999999999</v>
+        <v>0.426</v>
       </c>
       <c r="G15" s="1">
         <v>0.3402</v>
       </c>
       <c r="H15" s="1">
-        <v>0.75619999999999998</v>
+        <v>0.7562</v>
       </c>
       <c r="I15" s="1">
-        <v>0.25650000000000001</v>
+        <v>0.2565</v>
       </c>
       <c r="J15" s="1">
         <v>0.85</v>
@@ -4060,7 +4080,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C16" s="1">
         <v>88</v>
@@ -4075,13 +4095,13 @@
         <v>0.3805</v>
       </c>
       <c r="G16" s="1">
-        <v>0.22969999999999999</v>
+        <v>0.2297</v>
       </c>
       <c r="H16" s="1">
-        <v>0.81169999999999998</v>
+        <v>0.8117</v>
       </c>
       <c r="I16" s="1">
-        <v>0.38769999999999999</v>
+        <v>0.3877</v>
       </c>
       <c r="J16" s="1">
         <v>3.75</v>
@@ -4092,7 +4112,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C17" s="1">
         <v>68</v>
@@ -4104,13 +4124,13 @@
         <v>61.83</v>
       </c>
       <c r="F17" s="1">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="G17" s="1">
         <v>0.3624</v>
       </c>
       <c r="H17" s="1">
-        <v>0.74680000000000002</v>
+        <v>0.7468</v>
       </c>
       <c r="I17" s="1">
         <v>0.2737</v>
@@ -4124,7 +4144,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C18" s="1">
         <v>92</v>
@@ -4136,16 +4156,16 @@
         <v>90.25</v>
       </c>
       <c r="F18" s="1">
-        <v>0.43440000000000001</v>
+        <v>0.4344</v>
       </c>
       <c r="G18" s="1">
-        <v>0.28599999999999998</v>
+        <v>0.286</v>
       </c>
       <c r="H18" s="1">
-        <v>0.80989999999999995</v>
+        <v>0.8099</v>
       </c>
       <c r="I18" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="J18" s="1">
         <v>3.8</v>
@@ -4168,16 +4188,16 @@
         <v>96.17</v>
       </c>
       <c r="F19" s="1">
-        <v>-5.1999999999999998E-2</v>
+        <v>-0.052</v>
       </c>
       <c r="G19" s="1">
         <v>0.4541</v>
       </c>
       <c r="H19" s="1">
-        <v>0.77490000000000003</v>
+        <v>0.7749</v>
       </c>
       <c r="I19" s="1">
-        <v>0.24479999999999999</v>
+        <v>0.2448</v>
       </c>
       <c r="J19" s="1">
         <v>0.3</v>
@@ -4188,7 +4208,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C20" s="1">
         <v>88</v>
@@ -4200,16 +4220,16 @@
         <v>52.17</v>
       </c>
       <c r="F20" s="1">
-        <v>0.47799999999999998</v>
+        <v>0.478</v>
       </c>
       <c r="G20" s="1">
-        <v>0.43419999999999997</v>
+        <v>0.4342</v>
       </c>
       <c r="H20" s="1">
-        <v>0.73660000000000003</v>
+        <v>0.7366</v>
       </c>
       <c r="I20" s="1">
-        <v>0.30930000000000002</v>
+        <v>0.3093</v>
       </c>
       <c r="J20" s="1">
         <v>2.6</v>
@@ -4220,7 +4240,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C21" s="1">
         <v>68</v>
@@ -4232,16 +4252,16 @@
         <v>80.5</v>
       </c>
       <c r="F21" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="G21" s="1">
         <v>0.3538</v>
       </c>
       <c r="H21" s="1">
-        <v>0.77380000000000004</v>
+        <v>0.7738</v>
       </c>
       <c r="I21" s="1">
-        <v>0.24460000000000001</v>
+        <v>0.2446</v>
       </c>
       <c r="J21" s="1">
         <v>1.2</v>
@@ -4253,14 +4273,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -4274,7 +4293,7 @@
     <col min="10" max="10" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -4314,7 +4333,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="1">
-        <v>3.3332999999999999</v>
+        <v>3.3333</v>
       </c>
       <c r="C2" s="1">
         <v>68</v>
@@ -4326,7 +4345,7 @@
         <v>97.58</v>
       </c>
       <c r="F2" s="1">
-        <v>0.25240000000000001</v>
+        <v>0.2524</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4346,16 +4365,20 @@
         <v>79</v>
       </c>
       <c r="F3" s="1">
-        <v>0.28920000000000001</v>
+        <v>0.2892</v>
       </c>
       <c r="G3" s="1">
         <v>0.4541</v>
       </c>
       <c r="H3" s="1">
-        <v>0.68799999999999994</v>
+        <v>0.688</v>
       </c>
       <c r="I3" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.205</v>
+      </c>
+      <c r="M3" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>40.6666</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4363,7 +4386,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>9.3332999999999995</v>
+        <v>9.3333</v>
       </c>
       <c r="C4" s="1">
         <v>68</v>
@@ -4378,13 +4401,13 @@
         <v>0.2155</v>
       </c>
       <c r="G4" s="1">
-        <v>0.42259999999999998</v>
+        <v>0.4226</v>
       </c>
       <c r="H4" s="1">
-        <v>0.71189999999999998</v>
+        <v>0.7119</v>
       </c>
       <c r="I4" s="1">
-        <v>0.21010000000000001</v>
+        <v>0.2101</v>
       </c>
       <c r="J4" s="1">
         <v>2.9</v>
@@ -4395,7 +4418,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>18.333300000000001</v>
+        <v>18.3333</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -4407,16 +4430,16 @@
         <v>45.17</v>
       </c>
       <c r="F5" s="1">
-        <v>0.22059999999999999</v>
+        <v>0.2206</v>
       </c>
       <c r="G5" s="1">
-        <v>0.39939999999999998</v>
+        <v>0.3994</v>
       </c>
       <c r="H5" s="1">
         <v>0.7389</v>
       </c>
       <c r="I5" s="1">
-        <v>0.23400000000000001</v>
+        <v>0.234</v>
       </c>
       <c r="J5" s="1">
         <v>1.9</v>
@@ -4427,7 +4450,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C6" s="1">
         <v>84</v>
@@ -4442,10 +4465,10 @@
         <v>0.3216</v>
       </c>
       <c r="G6" s="1">
-        <v>0.51700000000000002</v>
+        <v>0.517</v>
       </c>
       <c r="H6" s="1">
-        <v>0.74319999999999997</v>
+        <v>0.7432</v>
       </c>
       <c r="I6" s="1">
         <v>0.2379</v>
@@ -4459,7 +4482,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="1">
-        <v>5.6666999999999996</v>
+        <v>5.6667</v>
       </c>
       <c r="C7" s="1">
         <v>84</v>
@@ -4471,16 +4494,16 @@
         <v>52</v>
       </c>
       <c r="F7" s="1">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="G7" s="1">
-        <v>0.40160000000000001</v>
+        <v>0.4016</v>
       </c>
       <c r="H7" s="1">
-        <v>0.73580000000000001</v>
+        <v>0.7358</v>
       </c>
       <c r="I7" s="1">
-        <v>0.25669999999999998</v>
+        <v>0.2567</v>
       </c>
       <c r="J7" s="1">
         <v>4.3</v>
@@ -4503,7 +4526,7 @@
         <v>78.08</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.10100000000000001</v>
+        <v>-0.101</v>
       </c>
       <c r="G8" s="1">
         <v>0.3553</v>
@@ -4512,7 +4535,7 @@
         <v>0.7077</v>
       </c>
       <c r="I8" s="1">
-        <v>0.19739999999999999</v>
+        <v>0.1974</v>
       </c>
       <c r="J8" s="1">
         <v>2.1</v>
@@ -4523,7 +4546,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>18.333300000000001</v>
+        <v>18.3333</v>
       </c>
       <c r="C9" s="1">
         <v>72</v>
@@ -4535,16 +4558,16 @@
         <v>78</v>
       </c>
       <c r="F9" s="1">
-        <v>0.16830000000000001</v>
+        <v>0.1683</v>
       </c>
       <c r="G9" s="1">
-        <v>0.31259999999999999</v>
+        <v>0.3126</v>
       </c>
       <c r="H9" s="1">
-        <v>0.73650000000000004</v>
+        <v>0.7365</v>
       </c>
       <c r="I9" s="1">
-        <v>0.21310000000000001</v>
+        <v>0.2131</v>
       </c>
       <c r="J9" s="1">
         <v>1.05</v>
@@ -4555,7 +4578,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>8.6667000000000005</v>
+        <v>8.6667</v>
       </c>
       <c r="C10" s="1">
         <v>88</v>
@@ -4570,13 +4593,13 @@
         <v>0.1883</v>
       </c>
       <c r="G10" s="1">
-        <v>0.35470000000000002</v>
+        <v>0.3547</v>
       </c>
       <c r="H10" s="1">
-        <v>0.77070000000000005</v>
+        <v>0.7707</v>
       </c>
       <c r="I10" s="1">
-        <v>0.27050000000000002</v>
+        <v>0.2705</v>
       </c>
       <c r="J10" s="1">
         <v>3.3</v>
@@ -4599,16 +4622,16 @@
         <v>80.08</v>
       </c>
       <c r="F11" s="1">
-        <v>0.20300000000000001</v>
+        <v>0.203</v>
       </c>
       <c r="G11" s="1">
-        <v>0.36149999999999999</v>
+        <v>0.3615</v>
       </c>
       <c r="H11" s="1">
-        <v>0.74490000000000001</v>
+        <v>0.7449</v>
       </c>
       <c r="I11" s="1">
-        <v>0.29220000000000002</v>
+        <v>0.2922</v>
       </c>
       <c r="J11" s="1">
         <v>1.2</v>
@@ -4619,7 +4642,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="1">
-        <v>16.666699999999999</v>
+        <v>16.6667</v>
       </c>
       <c r="C12" s="1">
         <v>84</v>
@@ -4631,13 +4654,13 @@
         <v>65.75</v>
       </c>
       <c r="F12" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.603</v>
       </c>
       <c r="G12" s="1">
-        <v>0.31069999999999998</v>
+        <v>0.3107</v>
       </c>
       <c r="H12" s="1">
-        <v>0.75960000000000005</v>
+        <v>0.7596</v>
       </c>
       <c r="I12" s="1">
         <v>0.3276</v>
@@ -4651,7 +4674,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>20.666699999999999</v>
+        <v>20.6667</v>
       </c>
       <c r="C13" s="1">
         <v>88</v>
@@ -4663,16 +4686,16 @@
         <v>86.58</v>
       </c>
       <c r="F13" s="1">
-        <v>0.38550000000000001</v>
+        <v>0.3855</v>
       </c>
       <c r="G13" s="1">
-        <v>0.19489999999999999</v>
+        <v>0.1949</v>
       </c>
       <c r="H13" s="1">
-        <v>0.82489999999999997</v>
+        <v>0.8249</v>
       </c>
       <c r="I13" s="1">
-        <v>0.38879999999999998</v>
+        <v>0.3888</v>
       </c>
       <c r="J13" s="1">
         <v>1.95</v>
@@ -4695,7 +4718,7 @@
         <v>78.67</v>
       </c>
       <c r="F14" s="1">
-        <v>0.50870000000000004</v>
+        <v>0.5087</v>
       </c>
       <c r="G14" s="1">
         <v>1.5243</v>
@@ -4704,7 +4727,7 @@
         <v>0.2495</v>
       </c>
       <c r="I14" s="1">
-        <v>2.3099999999999999E-2</v>
+        <v>0.0231</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
@@ -4727,16 +4750,16 @@
         <v>70.17</v>
       </c>
       <c r="F15" s="1">
-        <v>0.42599999999999999</v>
+        <v>0.426</v>
       </c>
       <c r="G15" s="1">
         <v>0.3402</v>
       </c>
       <c r="H15" s="1">
-        <v>0.75619999999999998</v>
+        <v>0.7562</v>
       </c>
       <c r="I15" s="1">
-        <v>0.25650000000000001</v>
+        <v>0.2565</v>
       </c>
       <c r="J15" s="1">
         <v>0.85</v>
@@ -4747,7 +4770,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>3.6667000000000001</v>
+        <v>3.6667</v>
       </c>
       <c r="C16" s="1">
         <v>88</v>
@@ -4762,13 +4785,13 @@
         <v>0.3805</v>
       </c>
       <c r="G16" s="1">
-        <v>0.22969999999999999</v>
+        <v>0.2297</v>
       </c>
       <c r="H16" s="1">
-        <v>0.81169999999999998</v>
+        <v>0.8117</v>
       </c>
       <c r="I16" s="1">
-        <v>0.38769999999999999</v>
+        <v>0.3877</v>
       </c>
       <c r="J16" s="1">
         <v>3.75</v>
@@ -4791,13 +4814,13 @@
         <v>61.83</v>
       </c>
       <c r="F17" s="1">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="G17" s="1">
         <v>0.3624</v>
       </c>
       <c r="H17" s="1">
-        <v>0.74680000000000002</v>
+        <v>0.7468</v>
       </c>
       <c r="I17" s="1">
         <v>0.2737</v>
@@ -4811,7 +4834,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>1.6667000000000001</v>
+        <v>1.6667</v>
       </c>
       <c r="C18" s="1">
         <v>92</v>
@@ -4823,16 +4846,16 @@
         <v>90.25</v>
       </c>
       <c r="F18" s="1">
-        <v>0.43440000000000001</v>
+        <v>0.4344</v>
       </c>
       <c r="G18" s="1">
-        <v>0.28599999999999998</v>
+        <v>0.286</v>
       </c>
       <c r="H18" s="1">
-        <v>0.80989999999999995</v>
+        <v>0.8099</v>
       </c>
       <c r="I18" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="J18" s="1">
         <v>3.8</v>
@@ -4843,7 +4866,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="1">
-        <v>1.6667000000000001</v>
+        <v>1.6667</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
@@ -4855,16 +4878,16 @@
         <v>96.17</v>
       </c>
       <c r="F19" s="1">
-        <v>-5.1999999999999998E-2</v>
+        <v>-0.052</v>
       </c>
       <c r="G19" s="1">
         <v>0.4541</v>
       </c>
       <c r="H19" s="1">
-        <v>0.77490000000000003</v>
+        <v>0.7749</v>
       </c>
       <c r="I19" s="1">
-        <v>0.24479999999999999</v>
+        <v>0.2448</v>
       </c>
       <c r="J19" s="1">
         <v>0.3</v>
@@ -4875,7 +4898,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>9.3332999999999995</v>
+        <v>9.3333</v>
       </c>
       <c r="C20" s="1">
         <v>88</v>
@@ -4887,16 +4910,16 @@
         <v>52.17</v>
       </c>
       <c r="F20" s="1">
-        <v>0.47799999999999998</v>
+        <v>0.478</v>
       </c>
       <c r="G20" s="1">
-        <v>0.43419999999999997</v>
+        <v>0.4342</v>
       </c>
       <c r="H20" s="1">
-        <v>0.73660000000000003</v>
+        <v>0.7366</v>
       </c>
       <c r="I20" s="1">
-        <v>0.30930000000000002</v>
+        <v>0.3093</v>
       </c>
       <c r="J20" s="1">
         <v>2.6</v>
@@ -4907,7 +4930,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>8.3332999999999995</v>
+        <v>8.3333</v>
       </c>
       <c r="C21" s="1">
         <v>68</v>
@@ -4919,16 +4942,16 @@
         <v>80.5</v>
       </c>
       <c r="F21" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="G21" s="1">
         <v>0.3538</v>
       </c>
       <c r="H21" s="1">
-        <v>0.77380000000000004</v>
+        <v>0.7738</v>
       </c>
       <c r="I21" s="1">
-        <v>0.24460000000000001</v>
+        <v>0.2446</v>
       </c>
       <c r="J21" s="1">
         <v>1.2</v>
@@ -4940,14 +4963,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -4957,7 +4979,7 @@
     <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -4988,19 +5010,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="1">
-        <v>2.6667000000000001</v>
+        <v>2.6667</v>
       </c>
       <c r="C2" s="1">
-        <v>-6.4500000000000002E-2</v>
+        <v>-0.0645</v>
       </c>
       <c r="D2" s="1">
-        <v>0.98880000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E2" s="1">
-        <v>0.36230000000000001</v>
+        <v>0.3623</v>
       </c>
       <c r="F2" s="1">
-        <v>5.1400000000000001E-2</v>
+        <v>0.0514</v>
       </c>
       <c r="G2" s="1">
         <v>2.6</v>
@@ -5014,19 +5036,23 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>-8.6099999999999996E-2</v>
+        <v>-0.0861</v>
       </c>
       <c r="D3" s="1">
-        <v>0.45340000000000003</v>
+        <v>0.4534</v>
       </c>
       <c r="E3" s="1">
-        <v>0.68910000000000005</v>
+        <v>0.6891</v>
       </c>
       <c r="F3" s="1">
-        <v>0.13689999999999999</v>
+        <v>0.1369</v>
       </c>
       <c r="G3" s="1">
         <v>0.7</v>
+      </c>
+      <c r="J3" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>42.6667</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -5037,16 +5063,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="1">
-        <v>-2.1299999999999999E-2</v>
+        <v>-0.0213</v>
       </c>
       <c r="D4" s="1">
-        <v>0.38150000000000001</v>
+        <v>0.3815</v>
       </c>
       <c r="E4" s="1">
-        <v>0.74990000000000001</v>
+        <v>0.7499</v>
       </c>
       <c r="F4" s="1">
-        <v>0.19750000000000001</v>
+        <v>0.1975</v>
       </c>
       <c r="G4" s="1">
         <v>1.3</v>
@@ -5057,19 +5083,19 @@
         <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>6.6666999999999996</v>
+        <v>6.6667</v>
       </c>
       <c r="C5" s="1">
-        <v>-8.1000000000000003E-2</v>
+        <v>-0.081</v>
       </c>
       <c r="D5" s="1">
-        <v>0.47220000000000001</v>
+        <v>0.4722</v>
       </c>
       <c r="E5" s="1">
-        <v>0.62960000000000005</v>
+        <v>0.6296</v>
       </c>
       <c r="F5" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.146</v>
       </c>
       <c r="G5" s="1">
         <v>0.7</v>
@@ -5080,19 +5106,19 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>3.3332999999999999</v>
+        <v>3.3333</v>
       </c>
       <c r="C6" s="1">
-        <v>-6.8900000000000003E-2</v>
+        <v>-0.0689</v>
       </c>
       <c r="D6" s="1">
-        <v>0.29449999999999998</v>
+        <v>0.2945</v>
       </c>
       <c r="E6" s="1">
-        <v>0.74170000000000003</v>
+        <v>0.7417</v>
       </c>
       <c r="F6" s="1">
-        <v>0.16309999999999999</v>
+        <v>0.1631</v>
       </c>
       <c r="G6" s="1">
         <v>0.6</v>
@@ -5103,19 +5129,19 @@
         <v>33</v>
       </c>
       <c r="B7" s="1">
-        <v>33.666699999999999</v>
+        <v>33.6667</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0299999999999997E-2</v>
+        <v>0.0503</v>
       </c>
       <c r="D7" s="1">
-        <v>0.20860000000000001</v>
+        <v>0.2086</v>
       </c>
       <c r="E7" s="1">
-        <v>0.80820000000000003</v>
+        <v>0.8082</v>
       </c>
       <c r="F7" s="1">
-        <v>0.39900000000000002</v>
+        <v>0.399</v>
       </c>
       <c r="G7" s="1">
         <v>1.6</v>
@@ -5126,19 +5152,19 @@
         <v>33</v>
       </c>
       <c r="B8" s="1">
-        <v>56.666699999999999</v>
+        <v>56.6667</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23300000000000001</v>
+        <v>0.233</v>
       </c>
       <c r="D8" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.2781</v>
       </c>
       <c r="E8" s="1">
-        <v>0.76790000000000003</v>
+        <v>0.7679</v>
       </c>
       <c r="F8" s="1">
-        <v>0.30880000000000002</v>
+        <v>0.3088</v>
       </c>
       <c r="G8" s="1">
         <v>2.4</v>
@@ -5152,16 +5178,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="1">
-        <v>6.0299999999999999E-2</v>
+        <v>0.0603</v>
       </c>
       <c r="D9" s="1">
         <v>0.3397</v>
       </c>
       <c r="E9" s="1">
-        <v>0.67759999999999998</v>
+        <v>0.6776</v>
       </c>
       <c r="F9" s="1">
-        <v>0.24709999999999999</v>
+        <v>0.2471</v>
       </c>
       <c r="G9" s="1">
         <v>0.7</v>
@@ -5172,19 +5198,19 @@
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>64.333299999999994</v>
+        <v>64.3333</v>
       </c>
       <c r="C10" s="1">
-        <v>0.33529999999999999</v>
+        <v>0.3353</v>
       </c>
       <c r="D10" s="1">
-        <v>0.18790000000000001</v>
+        <v>0.1879</v>
       </c>
       <c r="E10" s="1">
-        <v>0.80689999999999995</v>
+        <v>0.8069</v>
       </c>
       <c r="F10" s="1">
-        <v>0.43740000000000001</v>
+        <v>0.4374</v>
       </c>
       <c r="G10" s="1">
         <v>1.3</v>
@@ -5195,19 +5221,19 @@
         <v>33</v>
       </c>
       <c r="B11" s="1">
-        <v>59.333300000000001</v>
+        <v>59.3333</v>
       </c>
       <c r="C11" s="1">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="D11" s="1">
-        <v>0.37940000000000002</v>
+        <v>0.3794</v>
       </c>
       <c r="E11" s="1">
-        <v>0.73080000000000001</v>
+        <v>0.7308</v>
       </c>
       <c r="F11" s="1">
-        <v>0.26700000000000002</v>
+        <v>0.267</v>
       </c>
       <c r="G11" s="1">
         <v>0.7</v>
@@ -5221,16 +5247,16 @@
         <v>34</v>
       </c>
       <c r="C12" s="1">
-        <v>0.35320000000000001</v>
+        <v>0.3532</v>
       </c>
       <c r="D12" s="1">
         <v>0.7228</v>
       </c>
       <c r="E12" s="1">
-        <v>0.51290000000000002</v>
+        <v>0.5129</v>
       </c>
       <c r="F12" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>0.091</v>
       </c>
       <c r="G12" s="1">
         <v>1.2</v>
@@ -5244,13 +5270,13 @@
         <v>51</v>
       </c>
       <c r="C13" s="1">
-        <v>0.42099999999999999</v>
+        <v>0.421</v>
       </c>
       <c r="D13" s="1">
         <v>0.2102</v>
       </c>
       <c r="E13" s="1">
-        <v>0.74019999999999997</v>
+        <v>0.7402</v>
       </c>
       <c r="F13" s="1">
         <v>0.2858</v>
@@ -5264,19 +5290,19 @@
         <v>34</v>
       </c>
       <c r="B14" s="1">
-        <v>31.666699999999999</v>
+        <v>31.6667</v>
       </c>
       <c r="C14" s="1">
         <v>0.308</v>
       </c>
       <c r="D14" s="1">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="E14" s="1">
-        <v>0.44030000000000002</v>
+        <v>0.4403</v>
       </c>
       <c r="F14" s="1">
-        <v>6.8400000000000002E-2</v>
+        <v>0.0684</v>
       </c>
       <c r="G14" s="1">
         <v>0.9</v>
@@ -5290,16 +5316,16 @@
         <v>34</v>
       </c>
       <c r="C15" s="1">
-        <v>0.41220000000000001</v>
+        <v>0.4122</v>
       </c>
       <c r="D15" s="1">
-        <v>0.82410000000000005</v>
+        <v>0.8241</v>
       </c>
       <c r="E15" s="1">
-        <v>0.50409999999999999</v>
+        <v>0.5041</v>
       </c>
       <c r="F15" s="1">
-        <v>8.9700000000000002E-2</v>
+        <v>0.0897</v>
       </c>
       <c r="G15" s="1">
         <v>1.25</v>
@@ -5310,19 +5336,19 @@
         <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>24.666699999999999</v>
+        <v>24.6667</v>
       </c>
       <c r="C16" s="1">
-        <v>0.33539999999999998</v>
+        <v>0.3354</v>
       </c>
       <c r="D16" s="1">
         <v>1.0002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.35099999999999998</v>
+        <v>0.351</v>
       </c>
       <c r="F16" s="1">
-        <v>4.8099999999999997E-2</v>
+        <v>0.0481</v>
       </c>
       <c r="G16" s="1">
         <v>1.2</v>
@@ -5333,16 +5359,16 @@
         <v>35</v>
       </c>
       <c r="B17" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C17" s="1">
         <v>0.121</v>
       </c>
       <c r="D17" s="1">
-        <v>0.63260000000000005</v>
+        <v>0.6326</v>
       </c>
       <c r="E17" s="1">
-        <v>0.70330000000000004</v>
+        <v>0.7033</v>
       </c>
       <c r="F17" s="1">
         <v>0.1835</v>
@@ -5362,16 +5388,16 @@
         <v>0.158</v>
       </c>
       <c r="D18" s="1">
-        <v>0.30759999999999998</v>
+        <v>0.3076</v>
       </c>
       <c r="E18" s="1">
-        <v>0.77110000000000001</v>
+        <v>0.7711</v>
       </c>
       <c r="F18" s="1">
-        <v>0.29360000000000003</v>
+        <v>0.2936</v>
       </c>
       <c r="G18" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -5385,13 +5411,13 @@
         <v>-0.13</v>
       </c>
       <c r="D19" s="1">
-        <v>0.84330000000000005</v>
+        <v>0.8433</v>
       </c>
       <c r="E19" s="1">
-        <v>0.58289999999999997</v>
+        <v>0.5829</v>
       </c>
       <c r="F19" s="1">
-        <v>8.6599999999999996E-2</v>
+        <v>0.0866</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -5402,19 +5428,19 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>43.333300000000001</v>
+        <v>43.3333</v>
       </c>
       <c r="C20" s="1">
         <v>-0.189</v>
       </c>
       <c r="D20" s="1">
-        <v>0.51400000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="E20" s="1">
         <v>0.6724</v>
       </c>
       <c r="F20" s="1">
-        <v>0.14099999999999999</v>
+        <v>0.141</v>
       </c>
       <c r="G20" s="1">
         <v>0.7</v>
@@ -5428,16 +5454,16 @@
         <v>44</v>
       </c>
       <c r="C21" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.082</v>
       </c>
       <c r="D21" s="1">
-        <v>0.38379999999999997</v>
+        <v>0.3838</v>
       </c>
       <c r="E21" s="1">
-        <v>0.79520000000000002</v>
+        <v>0.7952</v>
       </c>
       <c r="F21" s="1">
-        <v>0.28760000000000002</v>
+        <v>0.2876</v>
       </c>
       <c r="G21" s="1">
         <v>0.7</v>
@@ -5449,14 +5475,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
@@ -5471,7 +5496,7 @@
     <col min="11" max="11" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -5538,16 +5563,16 @@
         <v>51</v>
       </c>
       <c r="I2" s="1">
-        <v>0.67230000000000001</v>
+        <v>0.6723</v>
       </c>
       <c r="J2" s="1">
         <v>0.2601</v>
       </c>
       <c r="K2" s="1">
-        <v>0.80579999999999996</v>
+        <v>0.8058</v>
       </c>
       <c r="L2" s="1">
-        <v>0.45079999999999998</v>
+        <v>0.4508</v>
       </c>
       <c r="M2" s="1">
         <v>5.2</v>
@@ -5558,7 +5583,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>3.3332999999999999</v>
+        <v>3.3333</v>
       </c>
       <c r="C3" s="1">
         <v>44</v>
@@ -5576,19 +5601,23 @@
         <v>37.5</v>
       </c>
       <c r="I3" s="1">
-        <v>0.70269999999999999</v>
+        <v>0.7027</v>
       </c>
       <c r="J3" s="1">
         <v>1.19</v>
       </c>
       <c r="K3" s="1">
-        <v>0.25119999999999998</v>
+        <v>0.2512</v>
       </c>
       <c r="L3" s="1">
-        <v>3.04E-2</v>
+        <v>0.0304</v>
       </c>
       <c r="M3" s="1">
         <v>2.6</v>
+      </c>
+      <c r="O3" s="1">
+        <f>SUM(B2:B6)</f>
+        <v>19.6666</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -5611,7 +5640,7 @@
         <v>40</v>
       </c>
       <c r="I4" s="1">
-        <v>0.66579999999999995</v>
+        <v>0.6658</v>
       </c>
       <c r="J4" s="1">
         <v>1.8347</v>
@@ -5620,7 +5649,7 @@
         <v>0.2326</v>
       </c>
       <c r="L4" s="1">
-        <v>4.2700000000000002E-2</v>
+        <v>0.0427</v>
       </c>
       <c r="M4" s="1">
         <v>2.6</v>
@@ -5646,16 +5675,16 @@
         <v>12</v>
       </c>
       <c r="I5" s="1">
-        <v>0.63019999999999998</v>
+        <v>0.6302</v>
       </c>
       <c r="J5" s="1">
-        <v>0.50939999999999996</v>
+        <v>0.5094</v>
       </c>
       <c r="K5" s="1">
-        <v>0.66490000000000005</v>
+        <v>0.6649</v>
       </c>
       <c r="L5" s="1">
-        <v>0.30730000000000002</v>
+        <v>0.3073</v>
       </c>
       <c r="M5" s="1">
         <v>3.9</v>
@@ -5666,7 +5695,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>7.3333000000000004</v>
+        <v>7.3333</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
@@ -5684,16 +5713,16 @@
         <v>33.44</v>
       </c>
       <c r="I6" s="1">
-        <v>0.69310000000000005</v>
+        <v>0.6931</v>
       </c>
       <c r="J6" s="1">
-        <v>0.56989999999999996</v>
+        <v>0.5699</v>
       </c>
       <c r="K6" s="1">
-        <v>0.48799999999999999</v>
+        <v>0.488</v>
       </c>
       <c r="L6" s="1">
-        <v>0.13619999999999999</v>
+        <v>0.1362</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -5719,10 +5748,10 @@
         <v>0.8</v>
       </c>
       <c r="J7" s="1">
-        <v>0.63959999999999995</v>
+        <v>0.6396</v>
       </c>
       <c r="K7" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.603</v>
       </c>
       <c r="L7" s="1">
         <v>0.1439</v>
@@ -5754,16 +5783,16 @@
         <v>43.42</v>
       </c>
       <c r="I8" s="1">
-        <v>0.95830000000000004</v>
+        <v>0.9583</v>
       </c>
       <c r="J8" s="1">
-        <v>0.56310000000000004</v>
+        <v>0.5631</v>
       </c>
       <c r="K8" s="1">
-        <v>0.51219999999999999</v>
+        <v>0.5122</v>
       </c>
       <c r="L8" s="1">
-        <v>0.16389999999999999</v>
+        <v>0.1639</v>
       </c>
       <c r="M8" s="1">
         <v>3.6</v>
@@ -5774,7 +5803,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>14.666700000000001</v>
+        <v>14.6667</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -5789,16 +5818,16 @@
         <v>8</v>
       </c>
       <c r="I9" s="1">
-        <v>0.84530000000000005</v>
+        <v>0.8453</v>
       </c>
       <c r="J9" s="1">
-        <v>1.2555000000000001</v>
+        <v>1.2555</v>
       </c>
       <c r="K9" s="1">
         <v>0.2137</v>
       </c>
       <c r="L9" s="1">
-        <v>3.56E-2</v>
+        <v>0.0356</v>
       </c>
       <c r="M9" s="1">
         <v>3.2</v>
@@ -5827,16 +5856,16 @@
         <v>32.92</v>
       </c>
       <c r="I10" s="1">
-        <v>0.84499999999999997</v>
+        <v>0.845</v>
       </c>
       <c r="J10" s="1">
-        <v>0.38490000000000002</v>
+        <v>0.3849</v>
       </c>
       <c r="K10" s="1">
-        <v>0.67789999999999995</v>
+        <v>0.6779</v>
       </c>
       <c r="L10" s="1">
-        <v>0.28110000000000002</v>
+        <v>0.2811</v>
       </c>
       <c r="M10" s="1">
         <v>3.7</v>
@@ -5868,16 +5897,16 @@
         <v>52.92</v>
       </c>
       <c r="I11" s="1">
-        <v>0.92200000000000004</v>
+        <v>0.922</v>
       </c>
       <c r="J11" s="1">
-        <v>0.20669999999999999</v>
+        <v>0.2067</v>
       </c>
       <c r="K11" s="1">
-        <v>0.83320000000000005</v>
+        <v>0.8332</v>
       </c>
       <c r="L11" s="1">
-        <v>0.74729999999999996</v>
+        <v>0.7473</v>
       </c>
       <c r="M11" s="1">
         <v>5.3</v>
@@ -5909,16 +5938,16 @@
         <v>41.5</v>
       </c>
       <c r="I12" s="1">
-        <v>0.88600000000000001</v>
+        <v>0.886</v>
       </c>
       <c r="J12" s="1">
-        <v>0.52280000000000004</v>
+        <v>0.5228</v>
       </c>
       <c r="K12" s="1">
-        <v>0.64749999999999996</v>
+        <v>0.6475</v>
       </c>
       <c r="L12" s="1">
-        <v>0.30199999999999999</v>
+        <v>0.302</v>
       </c>
       <c r="M12" s="1">
         <v>2.7</v>
@@ -5950,16 +5979,16 @@
         <v>42</v>
       </c>
       <c r="I13" s="1">
-        <v>0.78200000000000003</v>
+        <v>0.782</v>
       </c>
       <c r="J13" s="1">
-        <v>0.23139999999999999</v>
+        <v>0.2314</v>
       </c>
       <c r="K13" s="1">
-        <v>0.82830000000000004</v>
+        <v>0.8283</v>
       </c>
       <c r="L13" s="1">
-        <v>0.70530000000000004</v>
+        <v>0.7053</v>
       </c>
       <c r="M13" s="1">
         <v>2.6</v>
@@ -5970,7 +5999,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="1">
-        <v>8.6667000000000005</v>
+        <v>8.6667</v>
       </c>
       <c r="C14" s="1">
         <v>24</v>
@@ -5988,19 +6017,19 @@
         <v>26.82</v>
       </c>
       <c r="H14" s="1">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="I14" s="1">
-        <v>0.78500000000000003</v>
+        <v>0.785</v>
       </c>
       <c r="J14" s="1">
-        <v>1.9994000000000001</v>
+        <v>1.9994</v>
       </c>
       <c r="K14" s="1">
-        <v>0.19389999999999999</v>
+        <v>0.1939</v>
       </c>
       <c r="L14" s="1">
-        <v>2.63E-2</v>
+        <v>0.0263</v>
       </c>
       <c r="M14" s="1">
         <v>0.95</v>
@@ -6011,7 +6040,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="1">
-        <v>1.6667000000000001</v>
+        <v>1.6667</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -6035,13 +6064,13 @@
         <v>0.8135</v>
       </c>
       <c r="J15" s="1">
-        <v>0.13930000000000001</v>
+        <v>0.1393</v>
       </c>
       <c r="K15" s="1">
-        <v>0.81059999999999999</v>
+        <v>0.8106</v>
       </c>
       <c r="L15" s="1">
-        <v>0.68830000000000002</v>
+        <v>0.6883</v>
       </c>
       <c r="M15" s="1">
         <v>2.6</v>
@@ -6073,13 +6102,13 @@
         <v>0.8034</v>
       </c>
       <c r="J16" s="1">
-        <v>0.15390000000000001</v>
+        <v>0.1539</v>
       </c>
       <c r="K16" s="1">
-        <v>0.79469999999999996</v>
+        <v>0.7947</v>
       </c>
       <c r="L16" s="1">
-        <v>0.66549999999999998</v>
+        <v>0.6655</v>
       </c>
       <c r="M16" s="1">
         <v>3</v>
@@ -6105,16 +6134,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0.88100000000000001</v>
+        <v>0.881</v>
       </c>
       <c r="J17" s="1">
         <v>0.1231</v>
       </c>
       <c r="K17" s="1">
-        <v>0.82050000000000001</v>
+        <v>0.8205</v>
       </c>
       <c r="L17" s="1">
-        <v>0.64380000000000004</v>
+        <v>0.6438</v>
       </c>
       <c r="M17" s="1">
         <v>1.2</v>
@@ -6140,16 +6169,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0.91500000000000004</v>
+        <v>0.915</v>
       </c>
       <c r="J18" s="1">
-        <v>0.19370000000000001</v>
+        <v>0.1937</v>
       </c>
       <c r="K18" s="1">
-        <v>0.80969999999999998</v>
+        <v>0.8097</v>
       </c>
       <c r="L18" s="1">
-        <v>0.63490000000000002</v>
+        <v>0.6349</v>
       </c>
       <c r="M18" s="1">
         <v>0.6</v>
@@ -6160,7 +6189,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -6178,19 +6207,19 @@
         <v>12.2</v>
       </c>
       <c r="I19" s="1">
-        <v>0.91900000000000004</v>
+        <v>0.919</v>
       </c>
       <c r="J19" s="1">
-        <v>0.17080000000000001</v>
+        <v>0.1708</v>
       </c>
       <c r="K19" s="1">
-        <v>0.84699999999999998</v>
+        <v>0.847</v>
       </c>
       <c r="L19" s="1">
-        <v>0.72319999999999995</v>
+        <v>0.7232</v>
       </c>
       <c r="M19" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -6216,16 +6245,16 @@
         <v>42.75</v>
       </c>
       <c r="I20" s="1">
-        <v>0.95399999999999996</v>
+        <v>0.954</v>
       </c>
       <c r="J20" s="1">
-        <v>0.29349999999999998</v>
+        <v>0.2935</v>
       </c>
       <c r="K20" s="1">
-        <v>0.78459999999999996</v>
+        <v>0.7846</v>
       </c>
       <c r="L20" s="1">
-        <v>0.54039999999999999</v>
+        <v>0.5404</v>
       </c>
       <c r="M20" s="1">
         <v>1.9</v>
@@ -6251,16 +6280,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>0.82299999999999995</v>
+        <v>0.823</v>
       </c>
       <c r="J21" s="1">
-        <v>0.26900000000000002</v>
+        <v>0.269</v>
       </c>
       <c r="K21" s="1">
-        <v>0.81869999999999998</v>
+        <v>0.8187</v>
       </c>
       <c r="L21" s="1">
-        <v>0.56359999999999999</v>
+        <v>0.5636</v>
       </c>
       <c r="M21" s="1">
         <v>1.4</v>
@@ -6272,14 +6301,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -6288,7 +6316,7 @@
     <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -6319,19 +6347,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C2" s="1">
-        <v>-6.4500000000000002E-2</v>
+        <v>-0.0645</v>
       </c>
       <c r="D2" s="1">
-        <v>0.98880000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E2" s="1">
-        <v>0.36230000000000001</v>
+        <v>0.3623</v>
       </c>
       <c r="F2" s="1">
-        <v>5.1400000000000001E-2</v>
+        <v>0.0514</v>
       </c>
       <c r="G2" s="1">
         <v>2.6</v>
@@ -6342,19 +6370,19 @@
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C3" s="1">
-        <v>-8.6099999999999996E-2</v>
+        <v>-0.0861</v>
       </c>
       <c r="D3" s="1">
-        <v>0.45340000000000003</v>
+        <v>0.4534</v>
       </c>
       <c r="E3" s="1">
-        <v>0.68910000000000005</v>
+        <v>0.6891</v>
       </c>
       <c r="F3" s="1">
-        <v>0.13689999999999999</v>
+        <v>0.1369</v>
       </c>
       <c r="G3" s="1">
         <v>0.7</v>
@@ -6365,19 +6393,19 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.3333</v>
       </c>
       <c r="C4" s="1">
-        <v>-2.1299999999999999E-2</v>
+        <v>-0.0213</v>
       </c>
       <c r="D4" s="1">
-        <v>0.38150000000000001</v>
+        <v>0.3815</v>
       </c>
       <c r="E4" s="1">
-        <v>0.74990000000000001</v>
+        <v>0.7499</v>
       </c>
       <c r="F4" s="1">
-        <v>0.19750000000000001</v>
+        <v>0.1975</v>
       </c>
       <c r="G4" s="1">
         <v>1.3</v>
@@ -6388,19 +6416,19 @@
         <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>6.3333000000000004</v>
+        <v>6.3333</v>
       </c>
       <c r="C5" s="1">
-        <v>-8.1000000000000003E-2</v>
+        <v>-0.081</v>
       </c>
       <c r="D5" s="1">
-        <v>0.47220000000000001</v>
+        <v>0.4722</v>
       </c>
       <c r="E5" s="1">
-        <v>0.62960000000000005</v>
+        <v>0.6296</v>
       </c>
       <c r="F5" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.146</v>
       </c>
       <c r="G5" s="1">
         <v>0.7</v>
@@ -6414,16 +6442,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>-6.8900000000000003E-2</v>
+        <v>-0.0689</v>
       </c>
       <c r="D6" s="1">
-        <v>0.29449999999999998</v>
+        <v>0.2945</v>
       </c>
       <c r="E6" s="1">
-        <v>0.74170000000000003</v>
+        <v>0.7417</v>
       </c>
       <c r="F6" s="1">
-        <v>0.16309999999999999</v>
+        <v>0.1631</v>
       </c>
       <c r="G6" s="1">
         <v>0.6</v>
@@ -6437,16 +6465,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0299999999999997E-2</v>
+        <v>0.0503</v>
       </c>
       <c r="D7" s="1">
-        <v>0.20860000000000001</v>
+        <v>0.2086</v>
       </c>
       <c r="E7" s="1">
-        <v>0.80820000000000003</v>
+        <v>0.8082</v>
       </c>
       <c r="F7" s="1">
-        <v>0.39900000000000002</v>
+        <v>0.399</v>
       </c>
       <c r="G7" s="1">
         <v>1.6</v>
@@ -6457,19 +6485,19 @@
         <v>33</v>
       </c>
       <c r="B8" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.3333</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23300000000000001</v>
+        <v>0.233</v>
       </c>
       <c r="D8" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.2781</v>
       </c>
       <c r="E8" s="1">
-        <v>0.76790000000000003</v>
+        <v>0.7679</v>
       </c>
       <c r="F8" s="1">
-        <v>0.30880000000000002</v>
+        <v>0.3088</v>
       </c>
       <c r="G8" s="1">
         <v>2.4</v>
@@ -6480,19 +6508,19 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C9" s="1">
-        <v>6.0299999999999999E-2</v>
+        <v>0.0603</v>
       </c>
       <c r="D9" s="1">
         <v>0.3397</v>
       </c>
       <c r="E9" s="1">
-        <v>0.67759999999999998</v>
+        <v>0.6776</v>
       </c>
       <c r="F9" s="1">
-        <v>0.24709999999999999</v>
+        <v>0.2471</v>
       </c>
       <c r="G9" s="1">
         <v>0.7</v>
@@ -6506,16 +6534,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0.33529999999999999</v>
+        <v>0.3353</v>
       </c>
       <c r="D10" s="1">
-        <v>0.18790000000000001</v>
+        <v>0.1879</v>
       </c>
       <c r="E10" s="1">
-        <v>0.80689999999999995</v>
+        <v>0.8069</v>
       </c>
       <c r="F10" s="1">
-        <v>0.43740000000000001</v>
+        <v>0.4374</v>
       </c>
       <c r="G10" s="1">
         <v>1.3</v>
@@ -6529,16 +6557,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="D11" s="1">
-        <v>0.37940000000000002</v>
+        <v>0.3794</v>
       </c>
       <c r="E11" s="1">
-        <v>0.73080000000000001</v>
+        <v>0.7308</v>
       </c>
       <c r="F11" s="1">
-        <v>0.26700000000000002</v>
+        <v>0.267</v>
       </c>
       <c r="G11" s="1">
         <v>0.7</v>
@@ -6549,19 +6577,19 @@
         <v>34</v>
       </c>
       <c r="B12" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C12" s="1">
-        <v>0.35320000000000001</v>
+        <v>0.3532</v>
       </c>
       <c r="D12" s="1">
         <v>0.7228</v>
       </c>
       <c r="E12" s="1">
-        <v>0.51290000000000002</v>
+        <v>0.5129</v>
       </c>
       <c r="F12" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>0.091</v>
       </c>
       <c r="G12" s="1">
         <v>1.2</v>
@@ -6572,16 +6600,16 @@
         <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C13" s="1">
-        <v>0.42099999999999999</v>
+        <v>0.421</v>
       </c>
       <c r="D13" s="1">
         <v>0.2102</v>
       </c>
       <c r="E13" s="1">
-        <v>0.74019999999999997</v>
+        <v>0.7402</v>
       </c>
       <c r="F13" s="1">
         <v>0.2858</v>
@@ -6601,13 +6629,13 @@
         <v>0.308</v>
       </c>
       <c r="D14" s="1">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="E14" s="1">
-        <v>0.44030000000000002</v>
+        <v>0.4403</v>
       </c>
       <c r="F14" s="1">
-        <v>6.8400000000000002E-2</v>
+        <v>0.0684</v>
       </c>
       <c r="G14" s="1">
         <v>0.9</v>
@@ -6618,19 +6646,19 @@
         <v>34</v>
       </c>
       <c r="B15" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C15" s="1">
-        <v>0.41220000000000001</v>
+        <v>0.4122</v>
       </c>
       <c r="D15" s="1">
-        <v>0.82410000000000005</v>
+        <v>0.8241</v>
       </c>
       <c r="E15" s="1">
-        <v>0.50409999999999999</v>
+        <v>0.5041</v>
       </c>
       <c r="F15" s="1">
-        <v>8.9700000000000002E-2</v>
+        <v>0.0897</v>
       </c>
       <c r="G15" s="1">
         <v>1.25</v>
@@ -6641,19 +6669,19 @@
         <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C16" s="1">
-        <v>0.33539999999999998</v>
+        <v>0.3354</v>
       </c>
       <c r="D16" s="1">
         <v>1.0002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.35099999999999998</v>
+        <v>0.351</v>
       </c>
       <c r="F16" s="1">
-        <v>4.8099999999999997E-2</v>
+        <v>0.0481</v>
       </c>
       <c r="G16" s="1">
         <v>1.2</v>
@@ -6670,10 +6698,10 @@
         <v>0.121</v>
       </c>
       <c r="D17" s="1">
-        <v>0.63260000000000005</v>
+        <v>0.6326</v>
       </c>
       <c r="E17" s="1">
-        <v>0.70330000000000004</v>
+        <v>0.7033</v>
       </c>
       <c r="F17" s="1">
         <v>0.1835</v>
@@ -6693,16 +6721,16 @@
         <v>0.158</v>
       </c>
       <c r="D18" s="1">
-        <v>0.30759999999999998</v>
+        <v>0.3076</v>
       </c>
       <c r="E18" s="1">
-        <v>0.77110000000000001</v>
+        <v>0.7711</v>
       </c>
       <c r="F18" s="1">
-        <v>0.29360000000000003</v>
+        <v>0.2936</v>
       </c>
       <c r="G18" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -6716,13 +6744,13 @@
         <v>-0.13</v>
       </c>
       <c r="D19" s="1">
-        <v>0.84330000000000005</v>
+        <v>0.8433</v>
       </c>
       <c r="E19" s="1">
-        <v>0.58289999999999997</v>
+        <v>0.5829</v>
       </c>
       <c r="F19" s="1">
-        <v>8.6599999999999996E-2</v>
+        <v>0.0866</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -6739,13 +6767,13 @@
         <v>-0.189</v>
       </c>
       <c r="D20" s="1">
-        <v>0.51400000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="E20" s="1">
         <v>0.6724</v>
       </c>
       <c r="F20" s="1">
-        <v>0.14099999999999999</v>
+        <v>0.141</v>
       </c>
       <c r="G20" s="1">
         <v>0.7</v>
@@ -6759,16 +6787,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.082</v>
       </c>
       <c r="D21" s="1">
-        <v>0.38379999999999997</v>
+        <v>0.3838</v>
       </c>
       <c r="E21" s="1">
-        <v>0.79520000000000002</v>
+        <v>0.7952</v>
       </c>
       <c r="F21" s="1">
-        <v>0.28760000000000002</v>
+        <v>0.2876</v>
       </c>
       <c r="G21" s="1">
         <v>0.7</v>
@@ -6780,14 +6808,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -6802,7 +6829,7 @@
     <col min="12" max="12" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -6878,13 +6905,13 @@
         <v>0.3997</v>
       </c>
       <c r="K2" s="1">
-        <v>0.54700000000000004</v>
+        <v>0.547</v>
       </c>
       <c r="L2" s="1">
-        <v>0.65029999999999999</v>
+        <v>0.6503</v>
       </c>
       <c r="M2" s="1">
-        <v>0.18029999999999999</v>
+        <v>0.1803</v>
       </c>
       <c r="N2" s="1">
         <v>7.1</v>
@@ -6895,7 +6922,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.3333</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -6916,16 +6943,16 @@
         <v>22.17</v>
       </c>
       <c r="J3" s="1">
-        <v>0.41810000000000003</v>
+        <v>0.4181</v>
       </c>
       <c r="K3" s="1">
-        <v>1.0114000000000001</v>
+        <v>1.0114</v>
       </c>
       <c r="L3" s="1">
-        <v>0.43280000000000002</v>
+        <v>0.4328</v>
       </c>
       <c r="M3" s="1">
-        <v>8.5099999999999995E-2</v>
+        <v>0.0851</v>
       </c>
       <c r="N3" s="1">
         <v>2.9</v>
@@ -6954,19 +6981,23 @@
         <v>40.75</v>
       </c>
       <c r="J4" s="1">
-        <v>0.60919999999999996</v>
+        <v>0.6092</v>
       </c>
       <c r="K4" s="1">
         <v>0.1426</v>
       </c>
       <c r="L4" s="1">
-        <v>0.78480000000000005</v>
+        <v>0.7848</v>
       </c>
       <c r="M4" s="1">
-        <v>0.42399999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="N4" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
+      </c>
+      <c r="P4" s="1">
+        <f>AVERAGE(N2:N6)</f>
+        <v>4.12</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -6974,7 +7005,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -6992,16 +7023,16 @@
         <v>21.58</v>
       </c>
       <c r="J5" s="1">
-        <v>0.58260000000000001</v>
+        <v>0.5826</v>
       </c>
       <c r="K5" s="1">
-        <v>0.29520000000000002</v>
+        <v>0.2952</v>
       </c>
       <c r="L5" s="1">
-        <v>0.78710000000000002</v>
+        <v>0.7871</v>
       </c>
       <c r="M5" s="1">
-        <v>0.42709999999999998</v>
+        <v>0.4271</v>
       </c>
       <c r="N5" s="1">
         <v>4.5</v>
@@ -7012,7 +7043,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -7033,16 +7064,16 @@
         <v>30.73</v>
       </c>
       <c r="J6" s="1">
-        <v>0.51529999999999998</v>
+        <v>0.5153</v>
       </c>
       <c r="K6" s="1">
-        <v>0.34789999999999999</v>
+        <v>0.3479</v>
       </c>
       <c r="L6" s="1">
-        <v>0.76880000000000004</v>
+        <v>0.7688</v>
       </c>
       <c r="M6" s="1">
-        <v>0.34639999999999999</v>
+        <v>0.3464</v>
       </c>
       <c r="N6" s="1">
         <v>3.8</v>
@@ -7068,16 +7099,16 @@
         <v>12</v>
       </c>
       <c r="J7" s="1">
-        <v>0.55700000000000005</v>
+        <v>0.557</v>
       </c>
       <c r="K7" s="1">
-        <v>0.16769999999999999</v>
+        <v>0.1677</v>
       </c>
       <c r="L7" s="1">
-        <v>0.83140000000000003</v>
+        <v>0.8314</v>
       </c>
       <c r="M7" s="1">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="N7" s="1">
         <v>5.95</v>
@@ -7088,7 +7119,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -7115,10 +7146,10 @@
         <v>0.1673</v>
       </c>
       <c r="L8" s="1">
-        <v>0.81440000000000001</v>
+        <v>0.8144</v>
       </c>
       <c r="M8" s="1">
-        <v>0.48709999999999998</v>
+        <v>0.4871</v>
       </c>
       <c r="N8" s="1">
         <v>3.85</v>
@@ -7147,16 +7178,16 @@
         <v>21.83</v>
       </c>
       <c r="J9" s="1">
-        <v>0.61629999999999996</v>
+        <v>0.6163</v>
       </c>
       <c r="K9" s="1">
-        <v>0.19389999999999999</v>
+        <v>0.1939</v>
       </c>
       <c r="L9" s="1">
-        <v>0.80500000000000005</v>
+        <v>0.805</v>
       </c>
       <c r="M9" s="1">
-        <v>0.56210000000000004</v>
+        <v>0.5621</v>
       </c>
       <c r="N9" s="1">
         <v>6.05</v>
@@ -7182,16 +7213,16 @@
         <v>100</v>
       </c>
       <c r="J10" s="1">
-        <v>0.58799999999999997</v>
+        <v>0.588</v>
       </c>
       <c r="K10" s="1">
         <v>0.2319</v>
       </c>
       <c r="L10" s="1">
-        <v>0.82010000000000005</v>
+        <v>0.8201</v>
       </c>
       <c r="M10" s="1">
-        <v>0.49840000000000001</v>
+        <v>0.4984</v>
       </c>
       <c r="N10" s="1">
         <v>6.7</v>
@@ -7226,16 +7257,16 @@
         <v>18.57</v>
       </c>
       <c r="J11" s="1">
-        <v>0.67630000000000001</v>
+        <v>0.6763</v>
       </c>
       <c r="K11" s="1">
         <v>0.1915</v>
       </c>
       <c r="L11" s="1">
-        <v>0.85009999999999997</v>
+        <v>0.8501</v>
       </c>
       <c r="M11" s="1">
-        <v>0.63719999999999999</v>
+        <v>0.6372</v>
       </c>
       <c r="N11" s="1">
         <v>4.5</v>
@@ -7267,13 +7298,13 @@
         <v>0.6522</v>
       </c>
       <c r="K12" s="1">
-        <v>0.17369999999999999</v>
+        <v>0.1737</v>
       </c>
       <c r="L12" s="1">
-        <v>0.84719999999999995</v>
+        <v>0.8472</v>
       </c>
       <c r="M12" s="1">
-        <v>0.57250000000000001</v>
+        <v>0.5725</v>
       </c>
       <c r="N12" s="1">
         <v>2.6</v>
@@ -7302,16 +7333,16 @@
         <v>31.25</v>
       </c>
       <c r="J13" s="1">
-        <v>0.68799999999999994</v>
+        <v>0.688</v>
       </c>
       <c r="K13" s="1">
         <v>0.1028</v>
       </c>
       <c r="L13" s="1">
-        <v>0.85899999999999999</v>
+        <v>0.859</v>
       </c>
       <c r="M13" s="1">
-        <v>0.57750000000000001</v>
+        <v>0.5775</v>
       </c>
       <c r="N13" s="1">
         <v>3.4</v>
@@ -7349,10 +7380,10 @@
         <v>0.1472</v>
       </c>
       <c r="L14" s="1">
-        <v>0.80969999999999998</v>
+        <v>0.8097</v>
       </c>
       <c r="M14" s="1">
-        <v>0.45939999999999998</v>
+        <v>0.4594</v>
       </c>
       <c r="N14" s="1">
         <v>3</v>
@@ -7381,19 +7412,19 @@
         <v>10.33</v>
       </c>
       <c r="J15" s="1">
-        <v>0.65349999999999997</v>
+        <v>0.6535</v>
       </c>
       <c r="K15" s="1">
-        <v>0.19869999999999999</v>
+        <v>0.1987</v>
       </c>
       <c r="L15" s="1">
-        <v>0.81559999999999999</v>
+        <v>0.8156</v>
       </c>
       <c r="M15" s="1">
-        <v>0.56230000000000002</v>
+        <v>0.5623</v>
       </c>
       <c r="N15" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -7425,16 +7456,16 @@
         <v>21.83</v>
       </c>
       <c r="J16" s="1">
-        <v>0.64300000000000002</v>
+        <v>0.643</v>
       </c>
       <c r="K16" s="1">
-        <v>0.12759999999999999</v>
+        <v>0.1276</v>
       </c>
       <c r="L16" s="1">
-        <v>0.85460000000000003</v>
+        <v>0.8546</v>
       </c>
       <c r="M16" s="1">
-        <v>0.63600000000000001</v>
+        <v>0.636</v>
       </c>
       <c r="N16" s="1">
         <v>5.75</v>
@@ -7463,19 +7494,19 @@
         <v>40.83</v>
       </c>
       <c r="I17" s="1">
-        <v>18.829999999999998</v>
+        <v>18.83</v>
       </c>
       <c r="J17" s="1">
-        <v>0.77300000000000002</v>
+        <v>0.773</v>
       </c>
       <c r="K17" s="1">
         <v>0.2253</v>
       </c>
       <c r="L17" s="1">
-        <v>0.82969999999999999</v>
+        <v>0.8297</v>
       </c>
       <c r="M17" s="1">
-        <v>0.55879999999999996</v>
+        <v>0.5588</v>
       </c>
       <c r="N17" s="1">
         <v>2.8</v>
@@ -7507,16 +7538,16 @@
         <v>26.25</v>
       </c>
       <c r="J18" s="1">
-        <v>0.86699999999999999</v>
+        <v>0.867</v>
       </c>
       <c r="K18" s="1">
-        <v>0.20849999999999999</v>
+        <v>0.2085</v>
       </c>
       <c r="L18" s="1">
-        <v>0.84350000000000003</v>
+        <v>0.8435</v>
       </c>
       <c r="M18" s="1">
-        <v>0.59009999999999996</v>
+        <v>0.5901</v>
       </c>
       <c r="N18" s="1">
         <v>3</v>
@@ -7548,16 +7579,16 @@
         <v>18.25</v>
       </c>
       <c r="J19" s="1">
-        <v>0.84699999999999998</v>
+        <v>0.847</v>
       </c>
       <c r="K19" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="L19" s="1">
-        <v>0.80510000000000004</v>
+        <v>0.8051</v>
       </c>
       <c r="M19" s="1">
-        <v>0.55579999999999996</v>
+        <v>0.5558</v>
       </c>
       <c r="N19" s="1">
         <v>2.4</v>
@@ -7592,13 +7623,13 @@
         <v>0.755</v>
       </c>
       <c r="K20" s="1">
-        <v>0.26869999999999999</v>
+        <v>0.2687</v>
       </c>
       <c r="L20" s="1">
-        <v>0.79959999999999998</v>
+        <v>0.7996</v>
       </c>
       <c r="M20" s="1">
-        <v>0.49769999999999998</v>
+        <v>0.4977</v>
       </c>
       <c r="N20" s="1">
         <v>6.3</v>
@@ -7627,13 +7658,13 @@
         <v>36.5</v>
       </c>
       <c r="J21" s="1">
-        <v>0.69399999999999995</v>
+        <v>0.694</v>
       </c>
       <c r="K21" s="1">
-        <v>0.19289999999999999</v>
+        <v>0.1929</v>
       </c>
       <c r="L21" s="1">
-        <v>0.81189999999999996</v>
+        <v>0.8119</v>
       </c>
       <c r="M21" s="1">
         <v>0.4375</v>
@@ -7648,14 +7679,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -7666,7 +7696,7 @@
     <col min="8" max="8" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -7718,7 +7748,7 @@
         <v>97.58</v>
       </c>
       <c r="F2" s="1">
-        <v>0.25240000000000001</v>
+        <v>0.2524</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -7726,7 +7756,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1">
-        <v>1.6667000000000001</v>
+        <v>1.6667</v>
       </c>
       <c r="C3" s="1">
         <v>56</v>
@@ -7738,16 +7768,16 @@
         <v>79</v>
       </c>
       <c r="F3" s="1">
-        <v>0.28920000000000001</v>
+        <v>0.2892</v>
       </c>
       <c r="G3" s="1">
         <v>0.4541</v>
       </c>
       <c r="H3" s="1">
-        <v>0.68799999999999994</v>
+        <v>0.688</v>
       </c>
       <c r="I3" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -7770,13 +7800,13 @@
         <v>0.2155</v>
       </c>
       <c r="G4" s="1">
-        <v>0.42259999999999998</v>
+        <v>0.4226</v>
       </c>
       <c r="H4" s="1">
-        <v>0.71189999999999998</v>
+        <v>0.7119</v>
       </c>
       <c r="I4" s="1">
-        <v>0.21010000000000001</v>
+        <v>0.2101</v>
       </c>
       <c r="J4" s="1">
         <v>2.9</v>
@@ -7799,16 +7829,16 @@
         <v>45.17</v>
       </c>
       <c r="F5" s="1">
-        <v>0.22059999999999999</v>
+        <v>0.2206</v>
       </c>
       <c r="G5" s="1">
-        <v>0.39939999999999998</v>
+        <v>0.3994</v>
       </c>
       <c r="H5" s="1">
         <v>0.7389</v>
       </c>
       <c r="I5" s="1">
-        <v>0.23400000000000001</v>
+        <v>0.234</v>
       </c>
       <c r="J5" s="1">
         <v>1.9</v>
@@ -7819,7 +7849,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>1.6667000000000001</v>
+        <v>1.6667</v>
       </c>
       <c r="C6" s="1">
         <v>84</v>
@@ -7834,10 +7864,10 @@
         <v>0.3216</v>
       </c>
       <c r="G6" s="1">
-        <v>0.51700000000000002</v>
+        <v>0.517</v>
       </c>
       <c r="H6" s="1">
-        <v>0.74319999999999997</v>
+        <v>0.7432</v>
       </c>
       <c r="I6" s="1">
         <v>0.2379</v>
@@ -7851,7 +7881,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="1">
-        <v>2.3332999999999999</v>
+        <v>2.3333</v>
       </c>
       <c r="C7" s="1">
         <v>84</v>
@@ -7863,16 +7893,16 @@
         <v>52</v>
       </c>
       <c r="F7" s="1">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="G7" s="1">
-        <v>0.40160000000000001</v>
+        <v>0.4016</v>
       </c>
       <c r="H7" s="1">
-        <v>0.73580000000000001</v>
+        <v>0.7358</v>
       </c>
       <c r="I7" s="1">
-        <v>0.25669999999999998</v>
+        <v>0.2567</v>
       </c>
       <c r="J7" s="1">
         <v>4.3</v>
@@ -7895,7 +7925,7 @@
         <v>78.08</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.10100000000000001</v>
+        <v>-0.101</v>
       </c>
       <c r="G8" s="1">
         <v>0.3553</v>
@@ -7904,7 +7934,7 @@
         <v>0.7077</v>
       </c>
       <c r="I8" s="1">
-        <v>0.19739999999999999</v>
+        <v>0.1974</v>
       </c>
       <c r="J8" s="1">
         <v>2.1</v>
@@ -7915,7 +7945,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C9" s="1">
         <v>72</v>
@@ -7927,16 +7957,16 @@
         <v>78</v>
       </c>
       <c r="F9" s="1">
-        <v>0.16830000000000001</v>
+        <v>0.1683</v>
       </c>
       <c r="G9" s="1">
-        <v>0.31259999999999999</v>
+        <v>0.3126</v>
       </c>
       <c r="H9" s="1">
-        <v>0.73650000000000004</v>
+        <v>0.7365</v>
       </c>
       <c r="I9" s="1">
-        <v>0.21310000000000001</v>
+        <v>0.2131</v>
       </c>
       <c r="J9" s="1">
         <v>1.05</v>
@@ -7962,13 +7992,13 @@
         <v>0.1883</v>
       </c>
       <c r="G10" s="1">
-        <v>0.35470000000000002</v>
+        <v>0.3547</v>
       </c>
       <c r="H10" s="1">
-        <v>0.77070000000000005</v>
+        <v>0.7707</v>
       </c>
       <c r="I10" s="1">
-        <v>0.27050000000000002</v>
+        <v>0.2705</v>
       </c>
       <c r="J10" s="1">
         <v>3.3</v>
@@ -7979,7 +8009,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="1">
-        <v>1.6667000000000001</v>
+        <v>1.6667</v>
       </c>
       <c r="C11" s="1">
         <v>60</v>
@@ -7991,16 +8021,16 @@
         <v>80.08</v>
       </c>
       <c r="F11" s="1">
-        <v>0.20300000000000001</v>
+        <v>0.203</v>
       </c>
       <c r="G11" s="1">
-        <v>0.36149999999999999</v>
+        <v>0.3615</v>
       </c>
       <c r="H11" s="1">
-        <v>0.74490000000000001</v>
+        <v>0.7449</v>
       </c>
       <c r="I11" s="1">
-        <v>0.29220000000000002</v>
+        <v>0.2922</v>
       </c>
       <c r="J11" s="1">
         <v>1.2</v>
@@ -8023,13 +8053,13 @@
         <v>65.75</v>
       </c>
       <c r="F12" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.603</v>
       </c>
       <c r="G12" s="1">
-        <v>0.31069999999999998</v>
+        <v>0.3107</v>
       </c>
       <c r="H12" s="1">
-        <v>0.75960000000000005</v>
+        <v>0.7596</v>
       </c>
       <c r="I12" s="1">
         <v>0.3276</v>
@@ -8043,7 +8073,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C13" s="1">
         <v>88</v>
@@ -8055,16 +8085,16 @@
         <v>86.58</v>
       </c>
       <c r="F13" s="1">
-        <v>0.38550000000000001</v>
+        <v>0.3855</v>
       </c>
       <c r="G13" s="1">
-        <v>0.19489999999999999</v>
+        <v>0.1949</v>
       </c>
       <c r="H13" s="1">
-        <v>0.82489999999999997</v>
+        <v>0.8249</v>
       </c>
       <c r="I13" s="1">
-        <v>0.38879999999999998</v>
+        <v>0.3888</v>
       </c>
       <c r="J13" s="1">
         <v>1.95</v>
@@ -8075,7 +8105,7 @@
         <v>34</v>
       </c>
       <c r="B14" s="1">
-        <v>1.3332999999999999</v>
+        <v>1.3333</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -8087,7 +8117,7 @@
         <v>78.67</v>
       </c>
       <c r="F14" s="1">
-        <v>0.50870000000000004</v>
+        <v>0.5087</v>
       </c>
       <c r="G14" s="1">
         <v>1.5243</v>
@@ -8096,7 +8126,7 @@
         <v>0.2495</v>
       </c>
       <c r="I14" s="1">
-        <v>2.3099999999999999E-2</v>
+        <v>0.0231</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
@@ -8119,16 +8149,16 @@
         <v>70.17</v>
       </c>
       <c r="F15" s="1">
-        <v>0.42599999999999999</v>
+        <v>0.426</v>
       </c>
       <c r="G15" s="1">
         <v>0.3402</v>
       </c>
       <c r="H15" s="1">
-        <v>0.75619999999999998</v>
+        <v>0.7562</v>
       </c>
       <c r="I15" s="1">
-        <v>0.25650000000000001</v>
+        <v>0.2565</v>
       </c>
       <c r="J15" s="1">
         <v>0.85</v>
@@ -8154,13 +8184,13 @@
         <v>0.3805</v>
       </c>
       <c r="G16" s="1">
-        <v>0.22969999999999999</v>
+        <v>0.2297</v>
       </c>
       <c r="H16" s="1">
-        <v>0.81169999999999998</v>
+        <v>0.8117</v>
       </c>
       <c r="I16" s="1">
-        <v>0.38769999999999999</v>
+        <v>0.3877</v>
       </c>
       <c r="J16" s="1">
         <v>3.75</v>
@@ -8183,13 +8213,13 @@
         <v>61.83</v>
       </c>
       <c r="F17" s="1">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="G17" s="1">
         <v>0.3624</v>
       </c>
       <c r="H17" s="1">
-        <v>0.74680000000000002</v>
+        <v>0.7468</v>
       </c>
       <c r="I17" s="1">
         <v>0.2737</v>
@@ -8203,7 +8233,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C18" s="1">
         <v>92</v>
@@ -8215,16 +8245,16 @@
         <v>90.25</v>
       </c>
       <c r="F18" s="1">
-        <v>0.43440000000000001</v>
+        <v>0.4344</v>
       </c>
       <c r="G18" s="1">
-        <v>0.28599999999999998</v>
+        <v>0.286</v>
       </c>
       <c r="H18" s="1">
-        <v>0.80989999999999995</v>
+        <v>0.8099</v>
       </c>
       <c r="I18" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="J18" s="1">
         <v>3.8</v>
@@ -8247,16 +8277,16 @@
         <v>96.17</v>
       </c>
       <c r="F19" s="1">
-        <v>-5.1999999999999998E-2</v>
+        <v>-0.052</v>
       </c>
       <c r="G19" s="1">
         <v>0.4541</v>
       </c>
       <c r="H19" s="1">
-        <v>0.77490000000000003</v>
+        <v>0.7749</v>
       </c>
       <c r="I19" s="1">
-        <v>0.24479999999999999</v>
+        <v>0.2448</v>
       </c>
       <c r="J19" s="1">
         <v>0.3</v>
@@ -8279,16 +8309,16 @@
         <v>52.17</v>
       </c>
       <c r="F20" s="1">
-        <v>0.47799999999999998</v>
+        <v>0.478</v>
       </c>
       <c r="G20" s="1">
-        <v>0.43419999999999997</v>
+        <v>0.4342</v>
       </c>
       <c r="H20" s="1">
-        <v>0.73660000000000003</v>
+        <v>0.7366</v>
       </c>
       <c r="I20" s="1">
-        <v>0.30930000000000002</v>
+        <v>0.3093</v>
       </c>
       <c r="J20" s="1">
         <v>2.6</v>
@@ -8299,7 +8329,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C21" s="1">
         <v>68</v>
@@ -8311,16 +8341,16 @@
         <v>80.5</v>
       </c>
       <c r="F21" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="G21" s="1">
         <v>0.3538</v>
       </c>
       <c r="H21" s="1">
-        <v>0.77380000000000004</v>
+        <v>0.7738</v>
       </c>
       <c r="I21" s="1">
-        <v>0.24460000000000001</v>
+        <v>0.2446</v>
       </c>
       <c r="J21" s="1">
         <v>1.2</v>
@@ -8332,14 +8362,13 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -8348,7 +8377,7 @@
     <col min="5" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -8382,16 +8411,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>-6.4500000000000002E-2</v>
+        <v>-0.0645</v>
       </c>
       <c r="D2" s="1">
-        <v>0.98880000000000001</v>
+        <v>0.9888</v>
       </c>
       <c r="E2" s="1">
-        <v>0.36230000000000001</v>
+        <v>0.3623</v>
       </c>
       <c r="F2" s="1">
-        <v>5.1400000000000001E-2</v>
+        <v>0.0514</v>
       </c>
       <c r="G2" s="1">
         <v>2.6</v>
@@ -8405,16 +8434,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>-8.6099999999999996E-2</v>
+        <v>-0.0861</v>
       </c>
       <c r="D3" s="1">
-        <v>0.45340000000000003</v>
+        <v>0.4534</v>
       </c>
       <c r="E3" s="1">
-        <v>0.68910000000000005</v>
+        <v>0.6891</v>
       </c>
       <c r="F3" s="1">
-        <v>0.13689999999999999</v>
+        <v>0.1369</v>
       </c>
       <c r="G3" s="1">
         <v>0.7</v>
@@ -8425,19 +8454,19 @@
         <v>32</v>
       </c>
       <c r="B4" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C4" s="1">
-        <v>-2.1299999999999999E-2</v>
+        <v>-0.0213</v>
       </c>
       <c r="D4" s="1">
-        <v>0.38150000000000001</v>
+        <v>0.3815</v>
       </c>
       <c r="E4" s="1">
-        <v>0.74990000000000001</v>
+        <v>0.7499</v>
       </c>
       <c r="F4" s="1">
-        <v>0.19750000000000001</v>
+        <v>0.1975</v>
       </c>
       <c r="G4" s="1">
         <v>1.3</v>
@@ -8451,16 +8480,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>-8.1000000000000003E-2</v>
+        <v>-0.081</v>
       </c>
       <c r="D5" s="1">
-        <v>0.47220000000000001</v>
+        <v>0.4722</v>
       </c>
       <c r="E5" s="1">
-        <v>0.62960000000000005</v>
+        <v>0.6296</v>
       </c>
       <c r="F5" s="1">
-        <v>0.14599999999999999</v>
+        <v>0.146</v>
       </c>
       <c r="G5" s="1">
         <v>0.7</v>
@@ -8474,16 +8503,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>-6.8900000000000003E-2</v>
+        <v>-0.0689</v>
       </c>
       <c r="D6" s="1">
-        <v>0.29449999999999998</v>
+        <v>0.2945</v>
       </c>
       <c r="E6" s="1">
-        <v>0.74170000000000003</v>
+        <v>0.7417</v>
       </c>
       <c r="F6" s="1">
-        <v>0.16309999999999999</v>
+        <v>0.1631</v>
       </c>
       <c r="G6" s="1">
         <v>0.6</v>
@@ -8497,16 +8526,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0299999999999997E-2</v>
+        <v>0.0503</v>
       </c>
       <c r="D7" s="1">
-        <v>0.20860000000000001</v>
+        <v>0.2086</v>
       </c>
       <c r="E7" s="1">
-        <v>0.80820000000000003</v>
+        <v>0.8082</v>
       </c>
       <c r="F7" s="1">
-        <v>0.39900000000000002</v>
+        <v>0.399</v>
       </c>
       <c r="G7" s="1">
         <v>1.6</v>
@@ -8520,16 +8549,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>0.23300000000000001</v>
+        <v>0.233</v>
       </c>
       <c r="D8" s="1">
-        <v>0.27810000000000001</v>
+        <v>0.2781</v>
       </c>
       <c r="E8" s="1">
-        <v>0.76790000000000003</v>
+        <v>0.7679</v>
       </c>
       <c r="F8" s="1">
-        <v>0.30880000000000002</v>
+        <v>0.3088</v>
       </c>
       <c r="G8" s="1">
         <v>2.4</v>
@@ -8543,16 +8572,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>6.0299999999999999E-2</v>
+        <v>0.0603</v>
       </c>
       <c r="D9" s="1">
         <v>0.3397</v>
       </c>
       <c r="E9" s="1">
-        <v>0.67759999999999998</v>
+        <v>0.6776</v>
       </c>
       <c r="F9" s="1">
-        <v>0.24709999999999999</v>
+        <v>0.2471</v>
       </c>
       <c r="G9" s="1">
         <v>0.7</v>
@@ -8566,16 +8595,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0.33529999999999999</v>
+        <v>0.3353</v>
       </c>
       <c r="D10" s="1">
-        <v>0.18790000000000001</v>
+        <v>0.1879</v>
       </c>
       <c r="E10" s="1">
-        <v>0.80689999999999995</v>
+        <v>0.8069</v>
       </c>
       <c r="F10" s="1">
-        <v>0.43740000000000001</v>
+        <v>0.4374</v>
       </c>
       <c r="G10" s="1">
         <v>1.3</v>
@@ -8589,16 +8618,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>0.34399999999999997</v>
+        <v>0.344</v>
       </c>
       <c r="D11" s="1">
-        <v>0.37940000000000002</v>
+        <v>0.3794</v>
       </c>
       <c r="E11" s="1">
-        <v>0.73080000000000001</v>
+        <v>0.7308</v>
       </c>
       <c r="F11" s="1">
-        <v>0.26700000000000002</v>
+        <v>0.267</v>
       </c>
       <c r="G11" s="1">
         <v>0.7</v>
@@ -8612,16 +8641,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>0.35320000000000001</v>
+        <v>0.3532</v>
       </c>
       <c r="D12" s="1">
         <v>0.7228</v>
       </c>
       <c r="E12" s="1">
-        <v>0.51290000000000002</v>
+        <v>0.5129</v>
       </c>
       <c r="F12" s="1">
-        <v>9.0999999999999998E-2</v>
+        <v>0.091</v>
       </c>
       <c r="G12" s="1">
         <v>1.2</v>
@@ -8635,13 +8664,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>0.42099999999999999</v>
+        <v>0.421</v>
       </c>
       <c r="D13" s="1">
         <v>0.2102</v>
       </c>
       <c r="E13" s="1">
-        <v>0.74019999999999997</v>
+        <v>0.7402</v>
       </c>
       <c r="F13" s="1">
         <v>0.2858</v>
@@ -8661,13 +8690,13 @@
         <v>0.308</v>
       </c>
       <c r="D14" s="1">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="E14" s="1">
-        <v>0.44030000000000002</v>
+        <v>0.4403</v>
       </c>
       <c r="F14" s="1">
-        <v>6.8400000000000002E-2</v>
+        <v>0.0684</v>
       </c>
       <c r="G14" s="1">
         <v>0.9</v>
@@ -8678,19 +8707,19 @@
         <v>34</v>
       </c>
       <c r="B15" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C15" s="1">
-        <v>0.41220000000000001</v>
+        <v>0.4122</v>
       </c>
       <c r="D15" s="1">
-        <v>0.82410000000000005</v>
+        <v>0.8241</v>
       </c>
       <c r="E15" s="1">
-        <v>0.50409999999999999</v>
+        <v>0.5041</v>
       </c>
       <c r="F15" s="1">
-        <v>8.9700000000000002E-2</v>
+        <v>0.0897</v>
       </c>
       <c r="G15" s="1">
         <v>1.25</v>
@@ -8701,19 +8730,19 @@
         <v>34</v>
       </c>
       <c r="B16" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C16" s="1">
-        <v>0.33539999999999998</v>
+        <v>0.3354</v>
       </c>
       <c r="D16" s="1">
         <v>1.0002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.35099999999999998</v>
+        <v>0.351</v>
       </c>
       <c r="F16" s="1">
-        <v>4.8099999999999997E-2</v>
+        <v>0.0481</v>
       </c>
       <c r="G16" s="1">
         <v>1.2</v>
@@ -8730,10 +8759,10 @@
         <v>0.121</v>
       </c>
       <c r="D17" s="1">
-        <v>0.63260000000000005</v>
+        <v>0.6326</v>
       </c>
       <c r="E17" s="1">
-        <v>0.70330000000000004</v>
+        <v>0.7033</v>
       </c>
       <c r="F17" s="1">
         <v>0.1835</v>
@@ -8753,16 +8782,16 @@
         <v>0.158</v>
       </c>
       <c r="D18" s="1">
-        <v>0.30759999999999998</v>
+        <v>0.3076</v>
       </c>
       <c r="E18" s="1">
-        <v>0.77110000000000001</v>
+        <v>0.7711</v>
       </c>
       <c r="F18" s="1">
-        <v>0.29360000000000003</v>
+        <v>0.2936</v>
       </c>
       <c r="G18" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -8776,13 +8805,13 @@
         <v>-0.13</v>
       </c>
       <c r="D19" s="1">
-        <v>0.84330000000000005</v>
+        <v>0.8433</v>
       </c>
       <c r="E19" s="1">
-        <v>0.58289999999999997</v>
+        <v>0.5829</v>
       </c>
       <c r="F19" s="1">
-        <v>8.6599999999999996E-2</v>
+        <v>0.0866</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -8793,19 +8822,19 @@
         <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C20" s="1">
         <v>-0.189</v>
       </c>
       <c r="D20" s="1">
-        <v>0.51400000000000001</v>
+        <v>0.514</v>
       </c>
       <c r="E20" s="1">
         <v>0.6724</v>
       </c>
       <c r="F20" s="1">
-        <v>0.14099999999999999</v>
+        <v>0.141</v>
       </c>
       <c r="G20" s="1">
         <v>0.7</v>
@@ -8819,16 +8848,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>8.2000000000000003E-2</v>
+        <v>0.082</v>
       </c>
       <c r="D21" s="1">
-        <v>0.38379999999999997</v>
+        <v>0.3838</v>
       </c>
       <c r="E21" s="1">
-        <v>0.79520000000000002</v>
+        <v>0.7952</v>
       </c>
       <c r="F21" s="1">
-        <v>0.28760000000000002</v>
+        <v>0.2876</v>
       </c>
       <c r="G21" s="1">
         <v>0.7</v>
@@ -8840,14 +8869,13 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
@@ -8858,7 +8886,7 @@
     <col min="8" max="8" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -8910,7 +8938,7 @@
         <v>97.58</v>
       </c>
       <c r="F2" s="1">
-        <v>0.25240000000000001</v>
+        <v>0.2524</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -8930,16 +8958,16 @@
         <v>79</v>
       </c>
       <c r="F3" s="1">
-        <v>0.28920000000000001</v>
+        <v>0.2892</v>
       </c>
       <c r="G3" s="1">
         <v>0.4541</v>
       </c>
       <c r="H3" s="1">
-        <v>0.68799999999999994</v>
+        <v>0.688</v>
       </c>
       <c r="I3" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -8962,13 +8990,13 @@
         <v>0.2155</v>
       </c>
       <c r="G4" s="1">
-        <v>0.42259999999999998</v>
+        <v>0.4226</v>
       </c>
       <c r="H4" s="1">
-        <v>0.71189999999999998</v>
+        <v>0.7119</v>
       </c>
       <c r="I4" s="1">
-        <v>0.21010000000000001</v>
+        <v>0.2101</v>
       </c>
       <c r="J4" s="1">
         <v>2.9</v>
@@ -8991,16 +9019,16 @@
         <v>45.17</v>
       </c>
       <c r="F5" s="1">
-        <v>0.22059999999999999</v>
+        <v>0.2206</v>
       </c>
       <c r="G5" s="1">
-        <v>0.39939999999999998</v>
+        <v>0.3994</v>
       </c>
       <c r="H5" s="1">
         <v>0.7389</v>
       </c>
       <c r="I5" s="1">
-        <v>0.23400000000000001</v>
+        <v>0.234</v>
       </c>
       <c r="J5" s="1">
         <v>1.9</v>
@@ -9011,7 +9039,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C6" s="1">
         <v>84</v>
@@ -9026,10 +9054,10 @@
         <v>0.3216</v>
       </c>
       <c r="G6" s="1">
-        <v>0.51700000000000002</v>
+        <v>0.517</v>
       </c>
       <c r="H6" s="1">
-        <v>0.74319999999999997</v>
+        <v>0.7432</v>
       </c>
       <c r="I6" s="1">
         <v>0.2379</v>
@@ -9055,16 +9083,16 @@
         <v>52</v>
       </c>
       <c r="F7" s="1">
-        <v>0.29699999999999999</v>
+        <v>0.297</v>
       </c>
       <c r="G7" s="1">
-        <v>0.40160000000000001</v>
+        <v>0.4016</v>
       </c>
       <c r="H7" s="1">
-        <v>0.73580000000000001</v>
+        <v>0.7358</v>
       </c>
       <c r="I7" s="1">
-        <v>0.25669999999999998</v>
+        <v>0.2567</v>
       </c>
       <c r="J7" s="1">
         <v>4.3</v>
@@ -9087,7 +9115,7 @@
         <v>78.08</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.10100000000000001</v>
+        <v>-0.101</v>
       </c>
       <c r="G8" s="1">
         <v>0.3553</v>
@@ -9096,7 +9124,7 @@
         <v>0.7077</v>
       </c>
       <c r="I8" s="1">
-        <v>0.19739999999999999</v>
+        <v>0.1974</v>
       </c>
       <c r="J8" s="1">
         <v>2.1</v>
@@ -9119,16 +9147,16 @@
         <v>78</v>
       </c>
       <c r="F9" s="1">
-        <v>0.16830000000000001</v>
+        <v>0.1683</v>
       </c>
       <c r="G9" s="1">
-        <v>0.31259999999999999</v>
+        <v>0.3126</v>
       </c>
       <c r="H9" s="1">
-        <v>0.73650000000000004</v>
+        <v>0.7365</v>
       </c>
       <c r="I9" s="1">
-        <v>0.21310000000000001</v>
+        <v>0.2131</v>
       </c>
       <c r="J9" s="1">
         <v>1.05</v>
@@ -9154,13 +9182,13 @@
         <v>0.1883</v>
       </c>
       <c r="G10" s="1">
-        <v>0.35470000000000002</v>
+        <v>0.3547</v>
       </c>
       <c r="H10" s="1">
-        <v>0.77070000000000005</v>
+        <v>0.7707</v>
       </c>
       <c r="I10" s="1">
-        <v>0.27050000000000002</v>
+        <v>0.2705</v>
       </c>
       <c r="J10" s="1">
         <v>3.3</v>
@@ -9183,16 +9211,16 @@
         <v>80.08</v>
       </c>
       <c r="F11" s="1">
-        <v>0.20300000000000001</v>
+        <v>0.203</v>
       </c>
       <c r="G11" s="1">
-        <v>0.36149999999999999</v>
+        <v>0.3615</v>
       </c>
       <c r="H11" s="1">
-        <v>0.74490000000000001</v>
+        <v>0.7449</v>
       </c>
       <c r="I11" s="1">
-        <v>0.29220000000000002</v>
+        <v>0.2922</v>
       </c>
       <c r="J11" s="1">
         <v>1.2</v>
@@ -9203,7 +9231,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C12" s="1">
         <v>84</v>
@@ -9215,13 +9243,13 @@
         <v>65.75</v>
       </c>
       <c r="F12" s="1">
-        <v>0.60299999999999998</v>
+        <v>0.603</v>
       </c>
       <c r="G12" s="1">
-        <v>0.31069999999999998</v>
+        <v>0.3107</v>
       </c>
       <c r="H12" s="1">
-        <v>0.75960000000000005</v>
+        <v>0.7596</v>
       </c>
       <c r="I12" s="1">
         <v>0.3276</v>
@@ -9235,7 +9263,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.3333</v>
       </c>
       <c r="C13" s="1">
         <v>88</v>
@@ -9247,16 +9275,16 @@
         <v>86.58</v>
       </c>
       <c r="F13" s="1">
-        <v>0.38550000000000001</v>
+        <v>0.3855</v>
       </c>
       <c r="G13" s="1">
-        <v>0.19489999999999999</v>
+        <v>0.1949</v>
       </c>
       <c r="H13" s="1">
-        <v>0.82489999999999997</v>
+        <v>0.8249</v>
       </c>
       <c r="I13" s="1">
-        <v>0.38879999999999998</v>
+        <v>0.3888</v>
       </c>
       <c r="J13" s="1">
         <v>1.95</v>
@@ -9279,7 +9307,7 @@
         <v>78.67</v>
       </c>
       <c r="F14" s="1">
-        <v>0.50870000000000004</v>
+        <v>0.5087</v>
       </c>
       <c r="G14" s="1">
         <v>1.5243</v>
@@ -9288,7 +9316,7 @@
         <v>0.2495</v>
       </c>
       <c r="I14" s="1">
-        <v>2.3099999999999999E-2</v>
+        <v>0.0231</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
@@ -9311,16 +9339,16 @@
         <v>70.17</v>
       </c>
       <c r="F15" s="1">
-        <v>0.42599999999999999</v>
+        <v>0.426</v>
       </c>
       <c r="G15" s="1">
         <v>0.3402</v>
       </c>
       <c r="H15" s="1">
-        <v>0.75619999999999998</v>
+        <v>0.7562</v>
       </c>
       <c r="I15" s="1">
-        <v>0.25650000000000001</v>
+        <v>0.2565</v>
       </c>
       <c r="J15" s="1">
         <v>0.85</v>
@@ -9346,13 +9374,13 @@
         <v>0.3805</v>
       </c>
       <c r="G16" s="1">
-        <v>0.22969999999999999</v>
+        <v>0.2297</v>
       </c>
       <c r="H16" s="1">
-        <v>0.81169999999999998</v>
+        <v>0.8117</v>
       </c>
       <c r="I16" s="1">
-        <v>0.38769999999999999</v>
+        <v>0.3877</v>
       </c>
       <c r="J16" s="1">
         <v>3.75</v>
@@ -9363,7 +9391,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C17" s="1">
         <v>68</v>
@@ -9375,13 +9403,13 @@
         <v>61.83</v>
       </c>
       <c r="F17" s="1">
-        <v>0.39200000000000002</v>
+        <v>0.392</v>
       </c>
       <c r="G17" s="1">
         <v>0.3624</v>
       </c>
       <c r="H17" s="1">
-        <v>0.74680000000000002</v>
+        <v>0.7468</v>
       </c>
       <c r="I17" s="1">
         <v>0.2737</v>
@@ -9395,7 +9423,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.6667</v>
       </c>
       <c r="C18" s="1">
         <v>92</v>
@@ -9407,16 +9435,16 @@
         <v>90.25</v>
       </c>
       <c r="F18" s="1">
-        <v>0.43440000000000001</v>
+        <v>0.4344</v>
       </c>
       <c r="G18" s="1">
-        <v>0.28599999999999998</v>
+        <v>0.286</v>
       </c>
       <c r="H18" s="1">
-        <v>0.80989999999999995</v>
+        <v>0.8099</v>
       </c>
       <c r="I18" s="1">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="J18" s="1">
         <v>3.8</v>
@@ -9427,7 +9455,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="1">
-        <v>2.3332999999999999</v>
+        <v>2.3333</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
@@ -9439,16 +9467,16 @@
         <v>96.17</v>
       </c>
       <c r="F19" s="1">
-        <v>-5.1999999999999998E-2</v>
+        <v>-0.052</v>
       </c>
       <c r="G19" s="1">
         <v>0.4541</v>
       </c>
       <c r="H19" s="1">
-        <v>0.77490000000000003</v>
+        <v>0.7749</v>
       </c>
       <c r="I19" s="1">
-        <v>0.24479999999999999</v>
+        <v>0.2448</v>
       </c>
       <c r="J19" s="1">
         <v>0.3</v>
@@ -9471,16 +9499,16 @@
         <v>52.17</v>
       </c>
       <c r="F20" s="1">
-        <v>0.47799999999999998</v>
+        <v>0.478</v>
       </c>
       <c r="G20" s="1">
-        <v>0.43419999999999997</v>
+        <v>0.4342</v>
       </c>
       <c r="H20" s="1">
-        <v>0.73660000000000003</v>
+        <v>0.7366</v>
       </c>
       <c r="I20" s="1">
-        <v>0.30930000000000002</v>
+        <v>0.3093</v>
       </c>
       <c r="J20" s="1">
         <v>2.6</v>
@@ -9503,16 +9531,16 @@
         <v>80.5</v>
       </c>
       <c r="F21" s="1">
-        <v>3.3000000000000002E-2</v>
+        <v>0.033</v>
       </c>
       <c r="G21" s="1">
         <v>0.3538</v>
       </c>
       <c r="H21" s="1">
-        <v>0.77380000000000004</v>
+        <v>0.7738</v>
       </c>
       <c r="I21" s="1">
-        <v>0.24460000000000001</v>
+        <v>0.2446</v>
       </c>
       <c r="J21" s="1">
         <v>1.2</v>

--- a/data/jho_correlation_data.xlsx
+++ b/data/jho_correlation_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="8532" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="3" windowHeight="8532" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Burrows MP" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="P3" sqref="P3"/>
+      <selection pane="topLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -544,8 +544,7 @@
     <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16382" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -673,10 +672,6 @@
       <c r="N3" s="2">
         <v>3.8</v>
       </c>
-      <c r="P3" s="1">
-        <f>SUM(B2:B6)</f>
-        <v>52.9999</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -835,7 +830,6 @@
       <c r="N7" s="2">
         <v>3.85</v>
       </c>
-      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -4276,7 +4270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="topLeft" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -4291,9 +4285,7 @@
     <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16381" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -4375,10 +4367,6 @@
       </c>
       <c r="I3" s="1">
         <v>0.205</v>
-      </c>
-      <c r="M3" s="1">
-        <f>SUM(B2:B6)</f>
-        <v>40.6666</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4966,7 +4954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="topLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -4978,8 +4966,7 @@
     <col min="5" max="5" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16381" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -5049,10 +5036,6 @@
       </c>
       <c r="G3" s="1">
         <v>0.7</v>
-      </c>
-      <c r="J3" s="1">
-        <f>SUM(B2:B6)</f>
-        <v>42.6667</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -5478,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="topLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -5496,7 +5479,7 @@
     <col min="11" max="11" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1" customWidth="1"/>
+    <col min="14" max="16381" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -5614,10 +5597,6 @@
       </c>
       <c r="M3" s="1">
         <v>2.6</v>
-      </c>
-      <c r="O3" s="1">
-        <f>SUM(B2:B6)</f>
-        <v>19.6666</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -6811,7 +6790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="topLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -6829,7 +6808,7 @@
     <col min="12" max="12" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16382" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -6994,10 +6973,6 @@
       </c>
       <c r="N4" s="1">
         <v>2.3</v>
-      </c>
-      <c r="P4" s="1">
-        <f>AVERAGE(N2:N6)</f>
-        <v>4.12</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -8365,7 +8340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" sqref="A1:XFD1048576"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>

--- a/data/jho_correlation_data.xlsx
+++ b/data/jho_correlation_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="8532" windowWidth="23040" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" windowHeight="8532" windowWidth="23040" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Burrows MP" sheetId="1" r:id="rId1"/>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>PAS</t>
+  </si>
+  <si>
+    <t>average(</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="topLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -1378,6 +1381,12 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="1">
+        <f>AVERAGE(B2:B21)</f>
+        <v>3.666665</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:N21">
@@ -5461,7 +5470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="topLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>

--- a/data/jho_correlation_data.xlsx
+++ b/data/jho_correlation_data.xlsx
@@ -529,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="topLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
@@ -1383,10 +1383,7 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23">
-      <c r="B23" s="1">
-        <f>AVERAGE(B2:B21)</f>
-        <v>3.666665</v>
-      </c>
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:N21">
